--- a/inputs compound generator/inputs/means&stds.xlsx
+++ b/inputs compound generator/inputs/means&stds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3015B12-DF3C-45B7-BDD0-4B2416FED1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC8261-B521-4B70-8DE5-BC9DE90DA9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="111">
   <si>
     <t>codi ISIC</t>
   </si>
@@ -139,31 +139,10 @@
     <t>Calci</t>
   </si>
   <si>
-    <t>Coure dissolt</t>
-  </si>
-  <si>
-    <t>Zinc dissolt</t>
-  </si>
-  <si>
-    <t>Arsènic dissolt</t>
-  </si>
-  <si>
     <t>Seleni</t>
   </si>
   <si>
-    <t>Cadmi dissolt</t>
-  </si>
-  <si>
     <t>Antimoni</t>
-  </si>
-  <si>
-    <t>Mercuri dissolt</t>
-  </si>
-  <si>
-    <t>Plom dissolt</t>
-  </si>
-  <si>
-    <t>Niquel dissolt</t>
   </si>
   <si>
     <t>Naftalè</t>
@@ -206,9 +185,6 @@
   </si>
   <si>
     <t>Nonilfenols</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin</t>
   </si>
   <si>
     <t>Ciprofloxacina</t>
@@ -331,9 +307,6 @@
     <t>Benzo(g.h.i)perilè</t>
   </si>
   <si>
-    <t>Crom dissolt</t>
-  </si>
-  <si>
     <t>Sulfametoxazol</t>
   </si>
   <si>
@@ -369,12 +342,36 @@
   <si>
     <t>beta-HCH</t>
   </si>
+  <si>
+    <t>Crom</t>
+  </si>
+  <si>
+    <t>Coure</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Arsènic</t>
+  </si>
+  <si>
+    <t>Cadmi</t>
+  </si>
+  <si>
+    <t>Niquel</t>
+  </si>
+  <si>
+    <t>Mercuri</t>
+  </si>
+  <si>
+    <t>Plom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +381,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -411,9 +416,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G1042" sqref="G1042"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="H567" sqref="H567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3974,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C230">
         <v>1892.5</v>
@@ -3988,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C231">
         <v>14420</v>
@@ -4003,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="B232" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C232">
         <v>436367.5</v>
@@ -4017,7 +4024,7 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C233">
         <v>2064</v>
@@ -4031,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C234">
         <v>1805</v>
@@ -4045,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="B235" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C235">
         <v>17720</v>
@@ -4059,7 +4066,7 @@
         <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C236">
         <v>3002</v>
@@ -4073,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C237">
         <v>6548</v>
@@ -4087,7 +4094,7 @@
         <v>13</v>
       </c>
       <c r="B238" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C238">
         <v>2932</v>
@@ -4101,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C239">
         <v>2166</v>
@@ -4115,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C240">
         <v>10390</v>
@@ -4129,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C241">
         <v>2140</v>
@@ -4143,7 +4150,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C242">
         <v>10957.5</v>
@@ -4157,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C243">
         <v>15798</v>
@@ -4171,7 +4178,7 @@
         <v>7</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C244">
         <v>7522.5</v>
@@ -4185,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C245">
         <v>2216</v>
@@ -4199,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C246">
         <v>4092.5</v>
@@ -4213,7 +4220,7 @@
         <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C247">
         <v>4830</v>
@@ -4227,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C248">
         <v>8756</v>
@@ -4241,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C249">
         <v>13698</v>
@@ -4255,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C250">
         <v>50720</v>
@@ -4269,7 +4276,7 @@
         <v>14</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C251">
         <v>15392</v>
@@ -4283,7 +4290,7 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C252">
         <v>63120</v>
@@ -4297,7 +4304,7 @@
         <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C253">
         <v>12520</v>
@@ -4311,7 +4318,7 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C254">
         <v>22870</v>
@@ -4325,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C255">
         <v>573388</v>
@@ -4339,7 +4346,7 @@
         <v>7</v>
       </c>
       <c r="B256" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C256">
         <v>57787.5</v>
@@ -4353,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C257">
         <v>14288</v>
@@ -4367,7 +4374,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C258">
         <v>6775</v>
@@ -4381,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C259">
         <v>89360</v>
@@ -4395,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C260">
         <v>79206</v>
@@ -4409,7 +4416,7 @@
         <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C261">
         <v>66306</v>
@@ -4423,7 +4430,7 @@
         <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C262">
         <v>78646</v>
@@ -4437,7 +4444,7 @@
         <v>14</v>
       </c>
       <c r="B263" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C263">
         <v>100782</v>
@@ -4451,7 +4458,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C264">
         <v>101890</v>
@@ -4465,7 +4472,7 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C265">
         <v>111020</v>
@@ -4479,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C266">
         <v>1880</v>
@@ -4493,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C267">
         <v>1066</v>
@@ -4507,7 +4514,7 @@
         <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C268">
         <v>782.5</v>
@@ -4521,7 +4528,7 @@
         <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C269">
         <v>440</v>
@@ -4535,7 +4542,7 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C270">
         <v>1527.5</v>
@@ -4549,7 +4556,7 @@
         <v>10</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C271">
         <v>146.666666666667</v>
@@ -4563,7 +4570,7 @@
         <v>11</v>
       </c>
       <c r="B272" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C272">
         <v>1082</v>
@@ -4577,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C273">
         <v>766</v>
@@ -4591,7 +4598,7 @@
         <v>13</v>
       </c>
       <c r="B274" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C274">
         <v>2210</v>
@@ -4605,7 +4612,7 @@
         <v>14</v>
       </c>
       <c r="B275" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C275">
         <v>428</v>
@@ -4619,7 +4626,7 @@
         <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C276">
         <v>25170</v>
@@ -4633,7 +4640,7 @@
         <v>16</v>
       </c>
       <c r="B277" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C277">
         <v>50</v>
@@ -4647,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C278">
         <v>970</v>
@@ -4661,7 +4668,7 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C279">
         <v>764</v>
@@ -4675,7 +4682,7 @@
         <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C280">
         <v>1100</v>
@@ -4689,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C281">
         <v>1652</v>
@@ -4703,7 +4710,7 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C282">
         <v>1537.5</v>
@@ -4717,7 +4724,7 @@
         <v>10</v>
       </c>
       <c r="B283" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C283">
         <v>3966.6666666666702</v>
@@ -4731,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="B284" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C284">
         <v>6142</v>
@@ -4745,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C285">
         <v>1932</v>
@@ -4759,7 +4766,7 @@
         <v>13</v>
       </c>
       <c r="B286" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C286">
         <v>1098</v>
@@ -4773,7 +4780,7 @@
         <v>14</v>
       </c>
       <c r="B287" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C287">
         <v>988</v>
@@ -4787,7 +4794,7 @@
         <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C288">
         <v>315000</v>
@@ -4801,7 +4808,7 @@
         <v>16</v>
       </c>
       <c r="B289" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4815,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C290">
         <v>45.000000000000014</v>
@@ -4829,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C291">
         <v>120</v>
@@ -4843,7 +4850,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C292">
         <v>112.5</v>
@@ -4857,7 +4864,7 @@
         <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C293">
         <v>28</v>
@@ -4871,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C294">
         <v>75.000000000000014</v>
@@ -4885,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="B295" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C295">
         <v>30</v>
@@ -4899,7 +4906,7 @@
         <v>11</v>
       </c>
       <c r="B296" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C296">
         <v>69.999999999999986</v>
@@ -4913,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="B297" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C297">
         <v>78</v>
@@ -4927,7 +4934,7 @@
         <v>13</v>
       </c>
       <c r="B298" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C298">
         <v>1670</v>
@@ -4941,7 +4948,7 @@
         <v>14</v>
       </c>
       <c r="B299" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C299">
         <v>80</v>
@@ -4955,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C300">
         <v>280</v>
@@ -4969,7 +4976,7 @@
         <v>16</v>
       </c>
       <c r="B301" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C301">
         <v>40</v>
@@ -4983,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C302">
         <v>595</v>
@@ -4997,7 +5004,7 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C303">
         <v>103176</v>
@@ -5011,7 +5018,7 @@
         <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C304">
         <v>524.99999999999989</v>
@@ -5025,7 +5032,7 @@
         <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C305">
         <v>1206</v>
@@ -5039,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C306">
         <v>690.00000000000011</v>
@@ -5053,7 +5060,7 @@
         <v>10</v>
       </c>
       <c r="B307" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C307">
         <v>936.66666666666663</v>
@@ -5067,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C308">
         <v>826</v>
@@ -5081,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="B309" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C309">
         <v>639.99999999999989</v>
@@ -5095,7 +5102,7 @@
         <v>13</v>
       </c>
       <c r="B310" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C310">
         <v>878.00000000000011</v>
@@ -5109,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C311">
         <v>1676</v>
@@ -5123,7 +5130,7 @@
         <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C312">
         <v>10960</v>
@@ -5137,7 +5144,7 @@
         <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C313">
         <v>470</v>
@@ -5151,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C314">
         <v>42.5</v>
@@ -5165,7 +5172,7 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C315">
         <v>64</v>
@@ -5179,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C316">
         <v>22.5</v>
@@ -5193,7 +5200,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C317">
         <v>42</v>
@@ -5207,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C318">
         <v>112.5</v>
@@ -5221,7 +5228,7 @@
         <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C319">
         <v>66.666666666666671</v>
@@ -5235,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="B320" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C320">
         <v>122</v>
@@ -5249,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="B321" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C321">
         <v>72</v>
@@ -5263,7 +5270,7 @@
         <v>13</v>
       </c>
       <c r="B322" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C322">
         <v>158</v>
@@ -5277,7 +5284,7 @@
         <v>14</v>
       </c>
       <c r="B323" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C323">
         <v>60.000000000000014</v>
@@ -5291,7 +5298,7 @@
         <v>15</v>
       </c>
       <c r="B324" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C324">
         <v>110</v>
@@ -5305,7 +5312,7 @@
         <v>16</v>
       </c>
       <c r="B325" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C325">
         <v>60</v>
@@ -5319,10 +5326,10 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C326">
-        <v>442.5</v>
+        <v>1190</v>
       </c>
       <c r="D326">
         <v>0.13754544703478919</v>
@@ -5333,10 +5340,10 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C327">
-        <v>1140</v>
+        <v>1190</v>
       </c>
       <c r="D327">
         <v>1.021038686828271</v>
@@ -5347,10 +5354,10 @@
         <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C328">
-        <v>1400</v>
+        <v>1190</v>
       </c>
       <c r="D328">
         <v>1.152302043736797</v>
@@ -5361,10 +5368,10 @@
         <v>8</v>
       </c>
       <c r="B329" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C329">
-        <v>342</v>
+        <v>1190</v>
       </c>
       <c r="D329">
         <v>0.2461219210066426</v>
@@ -5375,10 +5382,10 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C330">
-        <v>245</v>
+        <v>1190</v>
       </c>
       <c r="D330">
         <v>0.105</v>
@@ -5389,10 +5396,10 @@
         <v>10</v>
       </c>
       <c r="B331" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C331">
-        <v>426.66666666666669</v>
+        <v>1190</v>
       </c>
       <c r="D331">
         <v>0.158394724940223</v>
@@ -5403,10 +5410,10 @@
         <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C332">
-        <v>766</v>
+        <v>1190</v>
       </c>
       <c r="D332">
         <v>0.53582086558849118</v>
@@ -5417,10 +5424,10 @@
         <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C333">
-        <v>724</v>
+        <v>1190</v>
       </c>
       <c r="D333">
         <v>0.41272751301554877</v>
@@ -5431,10 +5438,10 @@
         <v>13</v>
       </c>
       <c r="B334" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C334">
-        <v>2720</v>
+        <v>1190</v>
       </c>
       <c r="D334">
         <v>3.4960091533060949</v>
@@ -5445,10 +5452,10 @@
         <v>14</v>
       </c>
       <c r="B335" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C335">
-        <v>3364</v>
+        <v>1190</v>
       </c>
       <c r="D335">
         <v>2.6868092600703908</v>
@@ -5459,10 +5466,10 @@
         <v>15</v>
       </c>
       <c r="B336" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C336">
-        <v>220</v>
+        <v>1190</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -5473,10 +5480,10 @@
         <v>16</v>
       </c>
       <c r="B337" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C337">
-        <v>930</v>
+        <v>1190</v>
       </c>
       <c r="D337">
         <v>0.65</v>
@@ -5487,10 +5494,10 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C338">
-        <v>2455</v>
+        <v>41000</v>
       </c>
       <c r="D338">
         <v>0.86679005531904896</v>
@@ -5501,10 +5508,10 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C339">
-        <v>3300</v>
+        <v>41000</v>
       </c>
       <c r="D339">
         <v>1.6041820345584219</v>
@@ -5515,10 +5522,10 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C340">
-        <v>11250</v>
+        <v>41000</v>
       </c>
       <c r="D340">
         <v>3.4312752731309688</v>
@@ -5529,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C341">
-        <v>5616</v>
+        <v>41000</v>
       </c>
       <c r="D341">
         <v>5.8372582605192296</v>
@@ -5543,10 +5550,10 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C342">
-        <v>4097.5</v>
+        <v>41000</v>
       </c>
       <c r="D342">
         <v>3.4341838550083481</v>
@@ -5557,10 +5564,10 @@
         <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C343">
-        <v>7706.6666666666697</v>
+        <v>41000</v>
       </c>
       <c r="D343">
         <v>5.5341625884640901</v>
@@ -5571,10 +5578,10 @@
         <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C344">
-        <v>6160</v>
+        <v>41000</v>
       </c>
       <c r="D344">
         <v>3.2975081501036509</v>
@@ -5585,10 +5592,10 @@
         <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C345">
-        <v>6804</v>
+        <v>41000</v>
       </c>
       <c r="D345">
         <v>7.344389967859823</v>
@@ -5599,10 +5606,10 @@
         <v>13</v>
       </c>
       <c r="B346" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C346">
-        <v>9040</v>
+        <v>41000</v>
       </c>
       <c r="D346">
         <v>7.8511069283254571</v>
@@ -5613,10 +5620,10 @@
         <v>14</v>
       </c>
       <c r="B347" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C347">
-        <v>9524</v>
+        <v>41000</v>
       </c>
       <c r="D347">
         <v>13.036040196317281</v>
@@ -5627,10 +5634,10 @@
         <v>15</v>
       </c>
       <c r="B348" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C348">
-        <v>1744250</v>
+        <v>41000</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -5641,10 +5648,10 @@
         <v>16</v>
       </c>
       <c r="B349" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C349">
-        <v>6265</v>
+        <v>41000</v>
       </c>
       <c r="D349">
         <v>0.2849999999999997</v>
@@ -5655,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C350">
         <v>11.3475</v>
@@ -5669,7 +5676,7 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C351">
         <v>416.24799999999999</v>
@@ -5683,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C352">
         <v>805.72250000000008</v>
@@ -5697,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C353">
         <v>12.651999999999999</v>
@@ -5711,7 +5718,7 @@
         <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C354">
         <v>63.037500000000001</v>
@@ -5725,7 +5732,7 @@
         <v>10</v>
       </c>
       <c r="B355" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C355">
         <v>35.023333333333333</v>
@@ -5739,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C356">
         <v>611.91599999999994</v>
@@ -5753,7 +5760,7 @@
         <v>12</v>
       </c>
       <c r="B357" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C357">
         <v>25.27</v>
@@ -5767,7 +5774,7 @@
         <v>13</v>
       </c>
       <c r="B358" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C358">
         <v>1609.7260000000001</v>
@@ -5781,7 +5788,7 @@
         <v>14</v>
       </c>
       <c r="B359" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C359">
         <v>41.045999999999999</v>
@@ -5795,7 +5802,7 @@
         <v>15</v>
       </c>
       <c r="B360" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C360">
         <v>35.46</v>
@@ -5809,7 +5816,7 @@
         <v>16</v>
       </c>
       <c r="B361" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C361">
         <v>18.739999999999998</v>
@@ -5823,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="B362" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5837,7 +5844,7 @@
         <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C363">
         <v>48.786000000000001</v>
@@ -5851,7 +5858,7 @@
         <v>7</v>
       </c>
       <c r="B364" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C364">
         <v>1.17</v>
@@ -5865,7 +5872,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C365">
         <v>0.8859999999999999</v>
@@ -5879,7 +5886,7 @@
         <v>9</v>
       </c>
       <c r="B366" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C366">
         <v>0.52500000000000002</v>
@@ -5893,7 +5900,7 @@
         <v>10</v>
       </c>
       <c r="B367" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C367">
         <v>2.3966666666666669</v>
@@ -5907,7 +5914,7 @@
         <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C368">
         <v>208.86</v>
@@ -5921,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="B369" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C369">
         <v>19.204000000000001</v>
@@ -5935,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="B370" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C370">
         <v>4.12</v>
@@ -5949,7 +5956,7 @@
         <v>14</v>
       </c>
       <c r="B371" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C371">
         <v>1.508</v>
@@ -5963,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C372">
         <v>38.340000000000003</v>
@@ -5977,7 +5984,7 @@
         <v>16</v>
       </c>
       <c r="B373" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -5991,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="B374" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6005,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C375">
         <v>3.0819999999999999</v>
@@ -6019,7 +6026,7 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C376">
         <v>0.82750000000000001</v>
@@ -6033,7 +6040,7 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6047,7 +6054,7 @@
         <v>9</v>
       </c>
       <c r="B378" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C378">
         <v>2.3125</v>
@@ -6061,7 +6068,7 @@
         <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C379">
         <v>2.6533333333333329</v>
@@ -6075,7 +6082,7 @@
         <v>11</v>
       </c>
       <c r="B380" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C380">
         <v>49.186</v>
@@ -6089,7 +6096,7 @@
         <v>12</v>
       </c>
       <c r="B381" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -6103,7 +6110,7 @@
         <v>13</v>
       </c>
       <c r="B382" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C382">
         <v>1.1499999999999999</v>
@@ -6117,7 +6124,7 @@
         <v>14</v>
       </c>
       <c r="B383" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C383">
         <v>3.0640000000000001</v>
@@ -6131,7 +6138,7 @@
         <v>15</v>
       </c>
       <c r="B384" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C384">
         <v>3.25</v>
@@ -6145,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="B385" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6159,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="B386" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6173,7 +6180,7 @@
         <v>6</v>
       </c>
       <c r="B387" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C387">
         <v>22.71</v>
@@ -6187,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C388">
         <v>8.6550000000000011</v>
@@ -6201,7 +6208,7 @@
         <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C389">
         <v>5.8620000000000001</v>
@@ -6215,7 +6222,7 @@
         <v>9</v>
       </c>
       <c r="B390" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C390">
         <v>17.337499999999999</v>
@@ -6229,7 +6236,7 @@
         <v>10</v>
       </c>
       <c r="B391" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C391">
         <v>7.2</v>
@@ -6243,7 +6250,7 @@
         <v>11</v>
       </c>
       <c r="B392" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C392">
         <v>339.42599999999999</v>
@@ -6257,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="B393" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -6271,7 +6278,7 @@
         <v>13</v>
       </c>
       <c r="B394" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C394">
         <v>3.9380000000000002</v>
@@ -6285,7 +6292,7 @@
         <v>14</v>
       </c>
       <c r="B395" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C395">
         <v>3.3639999999999999</v>
@@ -6299,7 +6306,7 @@
         <v>15</v>
       </c>
       <c r="B396" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6313,7 +6320,7 @@
         <v>16</v>
       </c>
       <c r="B397" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C397">
         <v>0.875</v>
@@ -6327,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="B398" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C398">
         <v>1.1675</v>
@@ -6341,7 +6348,7 @@
         <v>6</v>
       </c>
       <c r="B399" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C399">
         <v>40.122</v>
@@ -6355,7 +6362,7 @@
         <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C400">
         <v>20.9725</v>
@@ -6369,7 +6376,7 @@
         <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C401">
         <v>5.5779999999999994</v>
@@ -6383,7 +6390,7 @@
         <v>9</v>
       </c>
       <c r="B402" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C402">
         <v>11.904999999999999</v>
@@ -6397,7 +6404,7 @@
         <v>10</v>
       </c>
       <c r="B403" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C403">
         <v>135.3666666666667</v>
@@ -6411,7 +6418,7 @@
         <v>11</v>
       </c>
       <c r="B404" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C404">
         <v>308.95200000000011</v>
@@ -6425,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="B405" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6439,7 +6446,7 @@
         <v>13</v>
       </c>
       <c r="B406" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C406">
         <v>803.26199999999994</v>
@@ -6453,7 +6460,7 @@
         <v>14</v>
       </c>
       <c r="B407" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C407">
         <v>40.902000000000001</v>
@@ -6467,7 +6474,7 @@
         <v>15</v>
       </c>
       <c r="B408" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6481,7 +6488,7 @@
         <v>16</v>
       </c>
       <c r="B409" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C409">
         <v>3.95</v>
@@ -6495,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6509,7 +6516,7 @@
         <v>6</v>
       </c>
       <c r="B411" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C411">
         <v>3.9239999999999999</v>
@@ -6523,7 +6530,7 @@
         <v>7</v>
       </c>
       <c r="B412" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C412">
         <v>1.4624999999999999</v>
@@ -6537,7 +6544,7 @@
         <v>8</v>
       </c>
       <c r="B413" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C413">
         <v>0.4</v>
@@ -6551,7 +6558,7 @@
         <v>9</v>
       </c>
       <c r="B414" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C414">
         <v>3.0474999999999999</v>
@@ -6565,7 +6572,7 @@
         <v>10</v>
       </c>
       <c r="B415" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C415">
         <v>320.05</v>
@@ -6579,7 +6586,7 @@
         <v>11</v>
       </c>
       <c r="B416" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C416">
         <v>287.26400000000001</v>
@@ -6593,7 +6600,7 @@
         <v>12</v>
       </c>
       <c r="B417" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C417">
         <v>0.49800000000000011</v>
@@ -6607,7 +6614,7 @@
         <v>13</v>
       </c>
       <c r="B418" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C418">
         <v>3.3959999999999999</v>
@@ -6621,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="B419" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C419">
         <v>7.8400000000000007</v>
@@ -6635,7 +6642,7 @@
         <v>15</v>
       </c>
       <c r="B420" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C420">
         <v>2.87</v>
@@ -6649,7 +6656,7 @@
         <v>16</v>
       </c>
       <c r="B421" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C421">
         <v>0.85499999999999998</v>
@@ -6663,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="B422" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C422">
         <v>1.1775</v>
@@ -6677,7 +6684,7 @@
         <v>6</v>
       </c>
       <c r="B423" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C423">
         <v>11.784000000000001</v>
@@ -6691,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="B424" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C424">
         <v>10.6775</v>
@@ -6705,7 +6712,7 @@
         <v>8</v>
       </c>
       <c r="B425" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C425">
         <v>3.04</v>
@@ -6719,7 +6726,7 @@
         <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C426">
         <v>2.54</v>
@@ -6733,7 +6740,7 @@
         <v>10</v>
       </c>
       <c r="B427" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C427">
         <v>23.63</v>
@@ -6747,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="B428" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C428">
         <v>33.06</v>
@@ -6761,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="B429" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C429">
         <v>1.88</v>
@@ -6775,7 +6782,7 @@
         <v>13</v>
       </c>
       <c r="B430" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C430">
         <v>35.024000000000001</v>
@@ -6789,7 +6796,7 @@
         <v>14</v>
       </c>
       <c r="B431" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C431">
         <v>15.654</v>
@@ -6803,7 +6810,7 @@
         <v>15</v>
       </c>
       <c r="B432" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C432">
         <v>2.11</v>
@@ -6817,7 +6824,7 @@
         <v>16</v>
       </c>
       <c r="B433" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C433">
         <v>2.8650000000000002</v>
@@ -6831,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="B434" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C434">
         <v>1.0125</v>
@@ -6845,7 +6852,7 @@
         <v>6</v>
       </c>
       <c r="B435" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C435">
         <v>17.986000000000001</v>
@@ -6859,7 +6866,7 @@
         <v>7</v>
       </c>
       <c r="B436" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C436">
         <v>179.66749999999999</v>
@@ -6873,7 +6880,7 @@
         <v>8</v>
       </c>
       <c r="B437" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C437">
         <v>3.3580000000000001</v>
@@ -6888,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="B438" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C438">
         <v>5.01</v>
@@ -6902,7 +6909,7 @@
         <v>10</v>
       </c>
       <c r="B439" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C439">
         <v>168.64333333333329</v>
@@ -6916,7 +6923,7 @@
         <v>11</v>
       </c>
       <c r="B440" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C440">
         <v>262.31200000000001</v>
@@ -6930,7 +6937,7 @@
         <v>12</v>
       </c>
       <c r="B441" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C441">
         <v>3.0459999999999998</v>
@@ -6944,7 +6951,7 @@
         <v>13</v>
       </c>
       <c r="B442" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C442">
         <v>34.031999999999996</v>
@@ -6958,7 +6965,7 @@
         <v>14</v>
       </c>
       <c r="B443" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C443">
         <v>52.735999999999997</v>
@@ -6972,7 +6979,7 @@
         <v>15</v>
       </c>
       <c r="B444" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C444">
         <v>2.98</v>
@@ -6986,7 +6993,7 @@
         <v>16</v>
       </c>
       <c r="B445" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C445">
         <v>1.48</v>
@@ -7000,7 +7007,7 @@
         <v>4</v>
       </c>
       <c r="B446" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -7014,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="B447" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C447">
         <v>1.734</v>
@@ -7028,7 +7035,7 @@
         <v>7</v>
       </c>
       <c r="B448" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C448">
         <v>6.8274999999999997</v>
@@ -7042,7 +7049,7 @@
         <v>8</v>
       </c>
       <c r="B449" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -7056,7 +7063,7 @@
         <v>9</v>
       </c>
       <c r="B450" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C450">
         <v>0.73</v>
@@ -7070,7 +7077,7 @@
         <v>10</v>
       </c>
       <c r="B451" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7084,7 +7091,7 @@
         <v>11</v>
       </c>
       <c r="B452" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C452">
         <v>14.416</v>
@@ -7098,7 +7105,7 @@
         <v>12</v>
       </c>
       <c r="B453" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7112,7 +7119,7 @@
         <v>13</v>
       </c>
       <c r="B454" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C454">
         <v>1.34</v>
@@ -7126,7 +7133,7 @@
         <v>14</v>
       </c>
       <c r="B455" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7140,7 +7147,7 @@
         <v>15</v>
       </c>
       <c r="B456" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7154,7 +7161,7 @@
         <v>16</v>
       </c>
       <c r="B457" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7168,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="B458" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7182,7 +7189,7 @@
         <v>6</v>
       </c>
       <c r="B459" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7196,7 +7203,7 @@
         <v>7</v>
       </c>
       <c r="B460" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C460">
         <v>11.29</v>
@@ -7210,7 +7217,7 @@
         <v>8</v>
       </c>
       <c r="B461" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C461">
         <v>1.726</v>
@@ -7224,7 +7231,7 @@
         <v>9</v>
       </c>
       <c r="B462" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C462">
         <v>0.75249999999999995</v>
@@ -7238,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="B463" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C463">
         <v>3.9833333333333329</v>
@@ -7252,7 +7259,7 @@
         <v>11</v>
       </c>
       <c r="B464" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C464">
         <v>26.745999999999999</v>
@@ -7266,7 +7273,7 @@
         <v>12</v>
       </c>
       <c r="B465" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -7280,7 +7287,7 @@
         <v>13</v>
       </c>
       <c r="B466" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C466">
         <v>4.2460000000000004</v>
@@ -7294,7 +7301,7 @@
         <v>14</v>
       </c>
       <c r="B467" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7308,7 +7315,7 @@
         <v>15</v>
       </c>
       <c r="B468" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -7322,7 +7329,7 @@
         <v>16</v>
       </c>
       <c r="B469" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7336,7 +7343,7 @@
         <v>4</v>
       </c>
       <c r="B470" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7350,7 +7357,7 @@
         <v>6</v>
       </c>
       <c r="B471" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7364,7 +7371,7 @@
         <v>7</v>
       </c>
       <c r="B472" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7378,7 +7385,7 @@
         <v>8</v>
       </c>
       <c r="B473" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7392,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="B474" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C474">
         <v>0.1</v>
@@ -7406,7 +7413,7 @@
         <v>10</v>
       </c>
       <c r="B475" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7420,7 +7427,7 @@
         <v>11</v>
       </c>
       <c r="B476" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C476">
         <v>2.718</v>
@@ -7434,7 +7441,7 @@
         <v>12</v>
       </c>
       <c r="B477" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7448,7 +7455,7 @@
         <v>13</v>
       </c>
       <c r="B478" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7462,7 +7469,7 @@
         <v>14</v>
       </c>
       <c r="B479" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7476,7 +7483,7 @@
         <v>15</v>
       </c>
       <c r="B480" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7490,7 +7497,7 @@
         <v>16</v>
       </c>
       <c r="B481" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7504,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="B482" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7518,7 +7525,7 @@
         <v>6</v>
       </c>
       <c r="B483" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7532,7 +7539,7 @@
         <v>7</v>
       </c>
       <c r="B484" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7546,7 +7553,7 @@
         <v>8</v>
       </c>
       <c r="B485" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7560,7 +7567,7 @@
         <v>9</v>
       </c>
       <c r="B486" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C486">
         <v>0.125</v>
@@ -7574,7 +7581,7 @@
         <v>10</v>
       </c>
       <c r="B487" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7588,7 +7595,7 @@
         <v>11</v>
       </c>
       <c r="B488" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C488">
         <v>5.91</v>
@@ -7602,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="B489" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7616,7 +7623,7 @@
         <v>13</v>
       </c>
       <c r="B490" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7630,7 +7637,7 @@
         <v>14</v>
       </c>
       <c r="B491" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7644,7 +7651,7 @@
         <v>15</v>
       </c>
       <c r="B492" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7658,7 +7665,7 @@
         <v>16</v>
       </c>
       <c r="B493" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7672,7 +7679,7 @@
         <v>4</v>
       </c>
       <c r="B494" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7686,7 +7693,7 @@
         <v>6</v>
       </c>
       <c r="B495" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7700,7 +7707,7 @@
         <v>7</v>
       </c>
       <c r="B496" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C496">
         <v>1.7175</v>
@@ -7714,7 +7721,7 @@
         <v>8</v>
       </c>
       <c r="B497" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -7728,7 +7735,7 @@
         <v>9</v>
       </c>
       <c r="B498" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -7742,7 +7749,7 @@
         <v>10</v>
       </c>
       <c r="B499" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7756,7 +7763,7 @@
         <v>11</v>
       </c>
       <c r="B500" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C500">
         <v>2.5139999999999998</v>
@@ -7770,7 +7777,7 @@
         <v>12</v>
       </c>
       <c r="B501" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -7784,7 +7791,7 @@
         <v>13</v>
       </c>
       <c r="B502" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7798,7 +7805,7 @@
         <v>14</v>
       </c>
       <c r="B503" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7812,7 +7819,7 @@
         <v>15</v>
       </c>
       <c r="B504" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -7826,7 +7833,7 @@
         <v>16</v>
       </c>
       <c r="B505" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7840,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="B506" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7854,7 +7861,7 @@
         <v>6</v>
       </c>
       <c r="B507" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7868,7 +7875,7 @@
         <v>7</v>
       </c>
       <c r="B508" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -7882,7 +7889,7 @@
         <v>8</v>
       </c>
       <c r="B509" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -7896,7 +7903,7 @@
         <v>9</v>
       </c>
       <c r="B510" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7910,7 +7917,7 @@
         <v>10</v>
       </c>
       <c r="B511" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -7924,7 +7931,7 @@
         <v>11</v>
       </c>
       <c r="B512" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C512">
         <v>19.007999999999999</v>
@@ -7938,7 +7945,7 @@
         <v>12</v>
       </c>
       <c r="B513" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -7952,7 +7959,7 @@
         <v>13</v>
       </c>
       <c r="B514" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -7966,7 +7973,7 @@
         <v>14</v>
       </c>
       <c r="B515" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7980,7 +7987,7 @@
         <v>15</v>
       </c>
       <c r="B516" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7994,7 +8001,7 @@
         <v>16</v>
       </c>
       <c r="B517" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -8008,7 +8015,7 @@
         <v>4</v>
       </c>
       <c r="B518" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -8022,7 +8029,7 @@
         <v>6</v>
       </c>
       <c r="B519" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -8036,7 +8043,7 @@
         <v>7</v>
       </c>
       <c r="B520" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -8050,7 +8057,7 @@
         <v>8</v>
       </c>
       <c r="B521" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -8064,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="B522" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -8078,7 +8085,7 @@
         <v>10</v>
       </c>
       <c r="B523" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -8092,7 +8099,7 @@
         <v>11</v>
       </c>
       <c r="B524" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -8106,7 +8113,7 @@
         <v>12</v>
       </c>
       <c r="B525" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -8120,7 +8127,7 @@
         <v>13</v>
       </c>
       <c r="B526" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -8134,7 +8141,7 @@
         <v>14</v>
       </c>
       <c r="B527" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -8148,7 +8155,7 @@
         <v>15</v>
       </c>
       <c r="B528" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -8162,7 +8169,7 @@
         <v>16</v>
       </c>
       <c r="B529" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -8176,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="B530" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -8190,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="B531" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -8204,7 +8211,7 @@
         <v>7</v>
       </c>
       <c r="B532" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -8218,7 +8225,7 @@
         <v>8</v>
       </c>
       <c r="B533" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -8232,7 +8239,7 @@
         <v>9</v>
       </c>
       <c r="B534" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -8246,7 +8253,7 @@
         <v>10</v>
       </c>
       <c r="B535" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8260,7 +8267,7 @@
         <v>11</v>
       </c>
       <c r="B536" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8274,7 +8281,7 @@
         <v>12</v>
       </c>
       <c r="B537" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -8288,7 +8295,7 @@
         <v>13</v>
       </c>
       <c r="B538" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -8302,7 +8309,7 @@
         <v>14</v>
       </c>
       <c r="B539" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -8316,7 +8323,7 @@
         <v>15</v>
       </c>
       <c r="B540" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -8330,7 +8337,7 @@
         <v>16</v>
       </c>
       <c r="B541" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -8344,10 +8351,10 @@
         <v>4</v>
       </c>
       <c r="B542" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C542">
-        <v>80.58250000000001</v>
+        <v>59.17</v>
       </c>
       <c r="D542">
         <v>74.902527118582597</v>
@@ -8358,10 +8365,10 @@
         <v>6</v>
       </c>
       <c r="B543" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C543">
-        <v>65.837999999999994</v>
+        <v>59.17</v>
       </c>
       <c r="D543">
         <v>59.525334572768259</v>
@@ -8372,10 +8379,10 @@
         <v>7</v>
       </c>
       <c r="B544" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C544">
-        <v>133.92250000000001</v>
+        <v>59.17</v>
       </c>
       <c r="D544">
         <v>119.2268330483956</v>
@@ -8386,10 +8393,10 @@
         <v>8</v>
       </c>
       <c r="B545" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C545">
-        <v>0</v>
+        <v>59.17</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -8400,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="B546" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C546">
-        <v>160.95249999999999</v>
+        <v>59.17</v>
       </c>
       <c r="D546">
         <v>278.7779076052297</v>
@@ -8414,10 +8421,10 @@
         <v>10</v>
       </c>
       <c r="B547" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C547">
-        <v>90.026666666666657</v>
+        <v>59.17</v>
       </c>
       <c r="D547">
         <v>94.561479589853207</v>
@@ -8428,10 +8435,10 @@
         <v>11</v>
       </c>
       <c r="B548" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C548">
-        <v>30.734000000000002</v>
+        <v>59.17</v>
       </c>
       <c r="D548">
         <v>37.96938745884637</v>
@@ -8442,10 +8449,10 @@
         <v>12</v>
       </c>
       <c r="B549" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C549">
-        <v>25.888000000000002</v>
+        <v>59.17</v>
       </c>
       <c r="D549">
         <v>14.42401663892551</v>
@@ -8456,10 +8463,10 @@
         <v>13</v>
       </c>
       <c r="B550" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C550">
-        <v>50.231999999999999</v>
+        <v>59.17</v>
       </c>
       <c r="D550">
         <v>47.645278213061147</v>
@@ -8470,10 +8477,10 @@
         <v>14</v>
       </c>
       <c r="B551" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C551">
-        <v>16.032</v>
+        <v>59.17</v>
       </c>
       <c r="D551">
         <v>32.064</v>
@@ -8484,10 +8491,10 @@
         <v>15</v>
       </c>
       <c r="B552" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>59.17</v>
       </c>
       <c r="D552">
         <v>0</v>
@@ -8498,10 +8505,10 @@
         <v>16</v>
       </c>
       <c r="B553" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C553">
-        <v>62.31</v>
+        <v>59.17</v>
       </c>
       <c r="D553">
         <v>2.859999999999999</v>
@@ -8512,10 +8519,10 @@
         <v>4</v>
       </c>
       <c r="B554" t="s">
-        <v>57</v>
-      </c>
-      <c r="C554">
-        <v>61.994999999999997</v>
+        <v>50</v>
+      </c>
+      <c r="C554" s="3">
+        <v>36.799999999999997</v>
       </c>
       <c r="D554">
         <v>107.3784898152325</v>
@@ -8526,10 +8533,10 @@
         <v>6</v>
       </c>
       <c r="B555" t="s">
-        <v>57</v>
-      </c>
-      <c r="C555">
-        <v>235.75399999999999</v>
+        <v>50</v>
+      </c>
+      <c r="C555" s="3">
+        <v>236</v>
       </c>
       <c r="D555">
         <v>303.1788743036031</v>
@@ -8540,7 +8547,7 @@
         <v>7</v>
       </c>
       <c r="B556" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8554,10 +8561,10 @@
         <v>8</v>
       </c>
       <c r="B557" t="s">
-        <v>57</v>
-      </c>
-      <c r="C557">
-        <v>8.36</v>
+        <v>50</v>
+      </c>
+      <c r="C557" s="3">
+        <v>36.799999999999997</v>
       </c>
       <c r="D557">
         <v>16.72</v>
@@ -8568,10 +8575,10 @@
         <v>9</v>
       </c>
       <c r="B558" t="s">
-        <v>57</v>
-      </c>
-      <c r="C558">
-        <v>35.342500000000001</v>
+        <v>50</v>
+      </c>
+      <c r="C558" s="3">
+        <v>36.799999999999997</v>
       </c>
       <c r="D558">
         <v>61.215005666503053</v>
@@ -8582,9 +8589,9 @@
         <v>10</v>
       </c>
       <c r="B559" t="s">
-        <v>57</v>
-      </c>
-      <c r="C559">
+        <v>50</v>
+      </c>
+      <c r="C559" s="2">
         <v>0</v>
       </c>
       <c r="D559">
@@ -8596,7 +8603,7 @@
         <v>11</v>
       </c>
       <c r="B560" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -8610,7 +8617,7 @@
         <v>12</v>
       </c>
       <c r="B561" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8624,10 +8631,10 @@
         <v>13</v>
       </c>
       <c r="B562" t="s">
-        <v>57</v>
-      </c>
-      <c r="C562">
-        <v>46.241999999999997</v>
+        <v>50</v>
+      </c>
+      <c r="C562" s="3">
+        <v>36.799999999999997</v>
       </c>
       <c r="D562">
         <v>92.484000000000023</v>
@@ -8638,7 +8645,7 @@
         <v>14</v>
       </c>
       <c r="B563" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -8652,9 +8659,9 @@
         <v>15</v>
       </c>
       <c r="B564" t="s">
-        <v>57</v>
-      </c>
-      <c r="C564">
+        <v>50</v>
+      </c>
+      <c r="C564" s="2">
         <v>0</v>
       </c>
       <c r="D564">
@@ -8666,10 +8673,10 @@
         <v>16</v>
       </c>
       <c r="B565" t="s">
-        <v>57</v>
-      </c>
-      <c r="C565">
-        <v>361.62</v>
+        <v>50</v>
+      </c>
+      <c r="C565" s="3">
+        <v>53.42</v>
       </c>
       <c r="D565">
         <v>4.2099999999999804</v>
@@ -8680,10 +8687,10 @@
         <v>4</v>
       </c>
       <c r="B566" t="s">
-        <v>58</v>
-      </c>
-      <c r="C566">
-        <v>53.405000000000001</v>
+        <v>51</v>
+      </c>
+      <c r="C566" s="3">
+        <v>31.2</v>
       </c>
       <c r="D566">
         <v>53.596996884153867</v>
@@ -8694,9 +8701,9 @@
         <v>6</v>
       </c>
       <c r="B567" t="s">
-        <v>59</v>
-      </c>
-      <c r="C567">
+        <v>51</v>
+      </c>
+      <c r="C567" s="3">
         <v>0</v>
       </c>
       <c r="D567">
@@ -8708,10 +8715,10 @@
         <v>7</v>
       </c>
       <c r="B568" t="s">
-        <v>59</v>
-      </c>
-      <c r="C568">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="C568" s="3">
+        <v>31.2</v>
       </c>
       <c r="D568">
         <v>9</v>
@@ -8722,10 +8729,10 @@
         <v>8</v>
       </c>
       <c r="B569" t="s">
-        <v>59</v>
-      </c>
-      <c r="C569">
-        <v>7.2040000000000006</v>
+        <v>51</v>
+      </c>
+      <c r="C569" s="3">
+        <v>387</v>
       </c>
       <c r="D569">
         <v>8.8230620535050068</v>
@@ -8736,10 +8743,10 @@
         <v>9</v>
       </c>
       <c r="B570" t="s">
-        <v>59</v>
-      </c>
-      <c r="C570">
-        <v>1293.0574999999999</v>
+        <v>51</v>
+      </c>
+      <c r="C570" s="3">
+        <v>387</v>
       </c>
       <c r="D570">
         <v>2239.6412871079929</v>
@@ -8750,10 +8757,10 @@
         <v>10</v>
       </c>
       <c r="B571" t="s">
-        <v>59</v>
-      </c>
-      <c r="C571">
-        <v>297.45666666666659</v>
+        <v>51</v>
+      </c>
+      <c r="C571" s="3">
+        <v>1036</v>
       </c>
       <c r="D571">
         <v>401.37737922752399</v>
@@ -8764,10 +8771,10 @@
         <v>11</v>
       </c>
       <c r="B572" t="s">
-        <v>59</v>
-      </c>
-      <c r="C572">
-        <v>2.7080000000000002</v>
+        <v>51</v>
+      </c>
+      <c r="C572" s="3">
+        <v>2.7</v>
       </c>
       <c r="D572">
         <v>5.4159999999999986</v>
@@ -8778,9 +8785,9 @@
         <v>12</v>
       </c>
       <c r="B573" t="s">
-        <v>59</v>
-      </c>
-      <c r="C573">
+        <v>51</v>
+      </c>
+      <c r="C573" s="3">
         <v>784.03</v>
       </c>
       <c r="D573">
@@ -8792,10 +8799,10 @@
         <v>13</v>
       </c>
       <c r="B574" t="s">
-        <v>59</v>
-      </c>
-      <c r="C574">
-        <v>41.433999999999997</v>
+        <v>51</v>
+      </c>
+      <c r="C574" s="3">
+        <v>387</v>
       </c>
       <c r="D574">
         <v>76.174646595832655</v>
@@ -8806,9 +8813,9 @@
         <v>14</v>
       </c>
       <c r="B575" t="s">
-        <v>59</v>
-      </c>
-      <c r="C575">
+        <v>51</v>
+      </c>
+      <c r="C575" s="3">
         <v>2661.4479999999999</v>
       </c>
       <c r="D575">
@@ -8820,10 +8827,10 @@
         <v>15</v>
       </c>
       <c r="B576" t="s">
-        <v>59</v>
-      </c>
-      <c r="C576">
-        <v>25941.85</v>
+        <v>51</v>
+      </c>
+      <c r="C576" s="3">
+        <v>1036</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -8834,10 +8841,10 @@
         <v>16</v>
       </c>
       <c r="B577" t="s">
-        <v>59</v>
-      </c>
-      <c r="C577">
-        <v>7.2949999999999999</v>
+        <v>51</v>
+      </c>
+      <c r="C577" s="3">
+        <v>1036</v>
       </c>
       <c r="D577">
         <v>7.2949999999999999</v>
@@ -8848,7 +8855,7 @@
         <v>4</v>
       </c>
       <c r="B578" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C578">
         <v>0</v>
@@ -8862,7 +8869,7 @@
         <v>6</v>
       </c>
       <c r="B579" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C579">
         <v>1.3480000000000001</v>
@@ -8876,7 +8883,7 @@
         <v>7</v>
       </c>
       <c r="B580" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C580">
         <v>494.46499999999997</v>
@@ -8890,7 +8897,7 @@
         <v>8</v>
       </c>
       <c r="B581" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C581">
         <v>311.54000000000002</v>
@@ -8904,7 +8911,7 @@
         <v>9</v>
       </c>
       <c r="B582" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C582">
         <v>51.532499999999999</v>
@@ -8918,7 +8925,7 @@
         <v>10</v>
       </c>
       <c r="B583" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C583">
         <v>76.706666666666663</v>
@@ -8932,7 +8939,7 @@
         <v>11</v>
       </c>
       <c r="B584" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C584">
         <v>2.2999999999999998</v>
@@ -8946,7 +8953,7 @@
         <v>12</v>
       </c>
       <c r="B585" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8960,7 +8967,7 @@
         <v>13</v>
       </c>
       <c r="B586" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -8974,7 +8981,7 @@
         <v>14</v>
       </c>
       <c r="B587" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C587">
         <v>1611.096</v>
@@ -8988,7 +8995,7 @@
         <v>15</v>
       </c>
       <c r="B588" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -9002,7 +9009,7 @@
         <v>16</v>
       </c>
       <c r="B589" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -9016,7 +9023,7 @@
         <v>4</v>
       </c>
       <c r="B590" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C590">
         <v>14.265000000000001</v>
@@ -9030,7 +9037,7 @@
         <v>6</v>
       </c>
       <c r="B591" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C591">
         <v>13.334</v>
@@ -9044,7 +9051,7 @@
         <v>7</v>
       </c>
       <c r="B592" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C592">
         <v>59.822499999999998</v>
@@ -9058,7 +9065,7 @@
         <v>8</v>
       </c>
       <c r="B593" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -9072,7 +9079,7 @@
         <v>9</v>
       </c>
       <c r="B594" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C594">
         <v>202.11750000000001</v>
@@ -9086,7 +9093,7 @@
         <v>10</v>
       </c>
       <c r="B595" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C595">
         <v>149.5866666666667</v>
@@ -9100,7 +9107,7 @@
         <v>11</v>
       </c>
       <c r="B596" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -9114,7 +9121,7 @@
         <v>12</v>
       </c>
       <c r="B597" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C597">
         <v>951.63400000000001</v>
@@ -9128,7 +9135,7 @@
         <v>13</v>
       </c>
       <c r="B598" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C598">
         <v>23.46</v>
@@ -9142,7 +9149,7 @@
         <v>14</v>
       </c>
       <c r="B599" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C599">
         <v>4709.3019999999997</v>
@@ -9156,7 +9163,7 @@
         <v>15</v>
       </c>
       <c r="B600" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C600">
         <v>55681.62</v>
@@ -9170,7 +9177,7 @@
         <v>16</v>
       </c>
       <c r="B601" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C601">
         <v>28.125</v>
@@ -9184,7 +9191,7 @@
         <v>4</v>
       </c>
       <c r="B602" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C602">
         <v>14.0875</v>
@@ -9198,7 +9205,7 @@
         <v>6</v>
       </c>
       <c r="B603" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C603">
         <v>0.27800000000000002</v>
@@ -9212,7 +9219,7 @@
         <v>7</v>
       </c>
       <c r="B604" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C604">
         <v>0.63749999999999996</v>
@@ -9226,7 +9233,7 @@
         <v>8</v>
       </c>
       <c r="B605" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C605">
         <v>2164.0859999999998</v>
@@ -9240,7 +9247,7 @@
         <v>9</v>
       </c>
       <c r="B606" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C606">
         <v>7302.2224999999999</v>
@@ -9254,7 +9261,7 @@
         <v>10</v>
       </c>
       <c r="B607" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C607">
         <v>0.64333333333333331</v>
@@ -9268,7 +9275,7 @@
         <v>11</v>
       </c>
       <c r="B608" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C608">
         <v>5358.2640000000001</v>
@@ -9282,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="B609" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C609">
         <v>196.92400000000001</v>
@@ -9296,7 +9303,7 @@
         <v>13</v>
       </c>
       <c r="B610" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C610">
         <v>34.718000000000004</v>
@@ -9310,7 +9317,7 @@
         <v>14</v>
       </c>
       <c r="B611" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C611">
         <v>1643.5540000000001</v>
@@ -9324,7 +9331,7 @@
         <v>15</v>
       </c>
       <c r="B612" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C612">
         <v>15710.12</v>
@@ -9338,7 +9345,7 @@
         <v>16</v>
       </c>
       <c r="B613" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C613">
         <v>0.435</v>
@@ -9352,7 +9359,7 @@
         <v>4</v>
       </c>
       <c r="B614" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C614">
         <v>7.63</v>
@@ -9366,7 +9373,7 @@
         <v>6</v>
       </c>
       <c r="B615" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -9380,7 +9387,7 @@
         <v>7</v>
       </c>
       <c r="B616" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -9394,7 +9401,7 @@
         <v>8</v>
       </c>
       <c r="B617" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C617">
         <v>0.89600000000000013</v>
@@ -9408,7 +9415,7 @@
         <v>9</v>
       </c>
       <c r="B618" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C618">
         <v>199854.52499999999</v>
@@ -9422,7 +9429,7 @@
         <v>10</v>
       </c>
       <c r="B619" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C619">
         <v>0.37000000000000011</v>
@@ -9436,7 +9443,7 @@
         <v>11</v>
       </c>
       <c r="B620" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -9450,7 +9457,7 @@
         <v>12</v>
       </c>
       <c r="B621" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C621">
         <v>26570.93</v>
@@ -9464,7 +9471,7 @@
         <v>13</v>
       </c>
       <c r="B622" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C622">
         <v>0.44800000000000012</v>
@@ -9478,7 +9485,7 @@
         <v>14</v>
       </c>
       <c r="B623" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C623">
         <v>0.442</v>
@@ -9492,7 +9499,7 @@
         <v>15</v>
       </c>
       <c r="B624" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -9506,7 +9513,7 @@
         <v>16</v>
       </c>
       <c r="B625" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C625">
         <v>2.29</v>
@@ -9520,7 +9527,7 @@
         <v>4</v>
       </c>
       <c r="B626" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9534,7 +9541,7 @@
         <v>6</v>
       </c>
       <c r="B627" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C627">
         <v>1.2E-2</v>
@@ -9548,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="B628" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9562,7 +9569,7 @@
         <v>8</v>
       </c>
       <c r="B629" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C629">
         <v>14.67</v>
@@ -9576,7 +9583,7 @@
         <v>9</v>
       </c>
       <c r="B630" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C630">
         <v>0.02</v>
@@ -9590,7 +9597,7 @@
         <v>10</v>
       </c>
       <c r="B631" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -9604,7 +9611,7 @@
         <v>11</v>
       </c>
       <c r="B632" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C632">
         <v>3.5999999999999997E-2</v>
@@ -9618,7 +9625,7 @@
         <v>12</v>
       </c>
       <c r="B633" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C633">
         <v>1.2E-2</v>
@@ -9632,7 +9639,7 @@
         <v>13</v>
       </c>
       <c r="B634" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -9646,7 +9653,7 @@
         <v>14</v>
       </c>
       <c r="B635" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C635">
         <v>1.7999999999999999E-2</v>
@@ -9660,7 +9667,7 @@
         <v>15</v>
       </c>
       <c r="B636" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -9674,7 +9681,7 @@
         <v>16</v>
       </c>
       <c r="B637" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -9688,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="B638" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9702,7 +9709,7 @@
         <v>6</v>
       </c>
       <c r="B639" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -9716,7 +9723,7 @@
         <v>7</v>
       </c>
       <c r="B640" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -9730,7 +9737,7 @@
         <v>8</v>
       </c>
       <c r="B641" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -9744,7 +9751,7 @@
         <v>9</v>
       </c>
       <c r="B642" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C642">
         <v>0</v>
@@ -9758,7 +9765,7 @@
         <v>10</v>
       </c>
       <c r="B643" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -9772,7 +9779,7 @@
         <v>11</v>
       </c>
       <c r="B644" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -9786,7 +9793,7 @@
         <v>12</v>
       </c>
       <c r="B645" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -9800,7 +9807,7 @@
         <v>13</v>
       </c>
       <c r="B646" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -9814,7 +9821,7 @@
         <v>14</v>
       </c>
       <c r="B647" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -9828,7 +9835,7 @@
         <v>15</v>
       </c>
       <c r="B648" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -9842,7 +9849,7 @@
         <v>16</v>
       </c>
       <c r="B649" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -9856,7 +9863,7 @@
         <v>4</v>
       </c>
       <c r="B650" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C650">
         <v>0.35249999999999998</v>
@@ -9870,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="B651" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C651">
         <v>8.3999999999999991E-2</v>
@@ -9884,7 +9891,7 @@
         <v>7</v>
       </c>
       <c r="B652" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C652">
         <v>2.0074999999999998</v>
@@ -9898,7 +9905,7 @@
         <v>8</v>
       </c>
       <c r="B653" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C653">
         <v>0.16800000000000001</v>
@@ -9912,7 +9919,7 @@
         <v>9</v>
       </c>
       <c r="B654" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C654">
         <v>9.7500000000000003E-2</v>
@@ -9926,7 +9933,7 @@
         <v>10</v>
       </c>
       <c r="B655" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C655">
         <v>0.1333333333333333</v>
@@ -9940,7 +9947,7 @@
         <v>11</v>
       </c>
       <c r="B656" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C656">
         <v>2.8000000000000001E-2</v>
@@ -9954,7 +9961,7 @@
         <v>12</v>
       </c>
       <c r="B657" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C657">
         <v>0.14000000000000001</v>
@@ -9968,7 +9975,7 @@
         <v>13</v>
       </c>
       <c r="B658" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C658">
         <v>2.1999999999999999E-2</v>
@@ -9982,7 +9989,7 @@
         <v>14</v>
       </c>
       <c r="B659" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C659">
         <v>0.41</v>
@@ -9996,7 +10003,7 @@
         <v>15</v>
       </c>
       <c r="B660" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -10010,7 +10017,7 @@
         <v>16</v>
       </c>
       <c r="B661" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C661">
         <v>0.11</v>
@@ -10024,7 +10031,7 @@
         <v>4</v>
       </c>
       <c r="B662" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -10038,7 +10045,7 @@
         <v>6</v>
       </c>
       <c r="B663" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -10052,7 +10059,7 @@
         <v>7</v>
       </c>
       <c r="B664" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -10066,7 +10073,7 @@
         <v>8</v>
       </c>
       <c r="B665" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -10080,7 +10087,7 @@
         <v>9</v>
       </c>
       <c r="B666" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -10094,7 +10101,7 @@
         <v>10</v>
       </c>
       <c r="B667" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -10108,7 +10115,7 @@
         <v>11</v>
       </c>
       <c r="B668" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C668">
         <v>0</v>
@@ -10122,7 +10129,7 @@
         <v>12</v>
       </c>
       <c r="B669" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C669">
         <v>4.5439999999999996</v>
@@ -10136,7 +10143,7 @@
         <v>13</v>
       </c>
       <c r="B670" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C670">
         <v>1.946</v>
@@ -10150,7 +10157,7 @@
         <v>14</v>
       </c>
       <c r="B671" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C671">
         <v>1.494</v>
@@ -10164,7 +10171,7 @@
         <v>15</v>
       </c>
       <c r="B672" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C672">
         <v>0</v>
@@ -10178,7 +10185,7 @@
         <v>16</v>
       </c>
       <c r="B673" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C673">
         <v>0</v>
@@ -10192,7 +10199,7 @@
         <v>4</v>
       </c>
       <c r="B674" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C674">
         <v>0</v>
@@ -10206,7 +10213,7 @@
         <v>6</v>
       </c>
       <c r="B675" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C675">
         <v>0</v>
@@ -10220,7 +10227,7 @@
         <v>7</v>
       </c>
       <c r="B676" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C676">
         <v>0</v>
@@ -10234,7 +10241,7 @@
         <v>8</v>
       </c>
       <c r="B677" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C677">
         <v>0</v>
@@ -10248,7 +10255,7 @@
         <v>9</v>
       </c>
       <c r="B678" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C678">
         <v>0</v>
@@ -10262,7 +10269,7 @@
         <v>10</v>
       </c>
       <c r="B679" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C679">
         <v>0</v>
@@ -10276,7 +10283,7 @@
         <v>11</v>
       </c>
       <c r="B680" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C680">
         <v>0</v>
@@ -10290,7 +10297,7 @@
         <v>12</v>
       </c>
       <c r="B681" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C681">
         <v>0</v>
@@ -10304,7 +10311,7 @@
         <v>13</v>
       </c>
       <c r="B682" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C682">
         <v>0</v>
@@ -10318,7 +10325,7 @@
         <v>14</v>
       </c>
       <c r="B683" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C683">
         <v>0</v>
@@ -10332,7 +10339,7 @@
         <v>15</v>
       </c>
       <c r="B684" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C684">
         <v>10.26</v>
@@ -10346,7 +10353,7 @@
         <v>16</v>
       </c>
       <c r="B685" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -10360,7 +10367,7 @@
         <v>4</v>
       </c>
       <c r="B686" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C686">
         <v>0</v>
@@ -10374,7 +10381,7 @@
         <v>6</v>
       </c>
       <c r="B687" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C687">
         <v>0</v>
@@ -10388,7 +10395,7 @@
         <v>7</v>
       </c>
       <c r="B688" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C688">
         <v>0</v>
@@ -10402,7 +10409,7 @@
         <v>8</v>
       </c>
       <c r="B689" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C689">
         <v>0</v>
@@ -10416,7 +10423,7 @@
         <v>9</v>
       </c>
       <c r="B690" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C690">
         <v>0</v>
@@ -10430,7 +10437,7 @@
         <v>10</v>
       </c>
       <c r="B691" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C691">
         <v>0</v>
@@ -10444,7 +10451,7 @@
         <v>11</v>
       </c>
       <c r="B692" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C692">
         <v>0</v>
@@ -10458,7 +10465,7 @@
         <v>12</v>
       </c>
       <c r="B693" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C693">
         <v>0</v>
@@ -10472,7 +10479,7 @@
         <v>13</v>
       </c>
       <c r="B694" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C694">
         <v>0</v>
@@ -10486,7 +10493,7 @@
         <v>14</v>
       </c>
       <c r="B695" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -10500,7 +10507,7 @@
         <v>15</v>
       </c>
       <c r="B696" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -10514,7 +10521,7 @@
         <v>16</v>
       </c>
       <c r="B697" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -10528,7 +10535,7 @@
         <v>4</v>
       </c>
       <c r="B698" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C698">
         <v>0.13</v>
@@ -10542,7 +10549,7 @@
         <v>6</v>
       </c>
       <c r="B699" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C699">
         <v>0.17599999999999999</v>
@@ -10556,7 +10563,7 @@
         <v>7</v>
       </c>
       <c r="B700" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C700">
         <v>0.16500000000000001</v>
@@ -10570,7 +10577,7 @@
         <v>8</v>
       </c>
       <c r="B701" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C701">
         <v>0.59</v>
@@ -10584,7 +10591,7 @@
         <v>9</v>
       </c>
       <c r="B702" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C702">
         <v>0.34</v>
@@ -10598,7 +10605,7 @@
         <v>10</v>
       </c>
       <c r="B703" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C703">
         <v>0</v>
@@ -10612,7 +10619,7 @@
         <v>11</v>
       </c>
       <c r="B704" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C704">
         <v>68.355999999999995</v>
@@ -10626,7 +10633,7 @@
         <v>12</v>
       </c>
       <c r="B705" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C705">
         <v>0.104</v>
@@ -10640,7 +10647,7 @@
         <v>13</v>
       </c>
       <c r="B706" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C706">
         <v>0.188</v>
@@ -10654,7 +10661,7 @@
         <v>14</v>
       </c>
       <c r="B707" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C707">
         <v>0.376</v>
@@ -10668,7 +10675,7 @@
         <v>15</v>
       </c>
       <c r="B708" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C708">
         <v>0</v>
@@ -10682,7 +10689,7 @@
         <v>16</v>
       </c>
       <c r="B709" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -10696,10 +10703,10 @@
         <v>4</v>
       </c>
       <c r="B710" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C710">
-        <v>1.4350000000000001</v>
+        <v>11.53</v>
       </c>
       <c r="D710">
         <v>1.4350000000000001</v>
@@ -10710,10 +10717,10 @@
         <v>6</v>
       </c>
       <c r="B711" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C711">
-        <v>6.5459999999999994</v>
+        <v>11.53</v>
       </c>
       <c r="D711">
         <v>10.755241698818301</v>
@@ -10724,10 +10731,10 @@
         <v>7</v>
       </c>
       <c r="B712" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C712">
-        <v>4.07</v>
+        <v>11.53</v>
       </c>
       <c r="D712">
         <v>4.5863874672774871</v>
@@ -10738,10 +10745,10 @@
         <v>8</v>
       </c>
       <c r="B713" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C713">
-        <v>63.762</v>
+        <v>11.53</v>
       </c>
       <c r="D713">
         <v>83.367171572508084</v>
@@ -10752,10 +10759,10 @@
         <v>9</v>
       </c>
       <c r="B714" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C714">
-        <v>3.8624999999999998</v>
+        <v>11.53</v>
       </c>
       <c r="D714">
         <v>2.5865650484764542</v>
@@ -10766,10 +10773,10 @@
         <v>10</v>
       </c>
       <c r="B715" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C715">
-        <v>4.34</v>
+        <v>11.53</v>
       </c>
       <c r="D715">
         <v>0</v>
@@ -10780,10 +10787,10 @@
         <v>11</v>
       </c>
       <c r="B716" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C716">
-        <v>9.0139999999999993</v>
+        <v>11.53</v>
       </c>
       <c r="D716">
         <v>18.027999999999999</v>
@@ -10794,10 +10801,10 @@
         <v>12</v>
       </c>
       <c r="B717" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C717">
-        <v>0.85600000000000009</v>
+        <v>11.53</v>
       </c>
       <c r="D717">
         <v>1.0483816099112</v>
@@ -10808,10 +10815,10 @@
         <v>13</v>
       </c>
       <c r="B718" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C718">
-        <v>18</v>
+        <v>11.53</v>
       </c>
       <c r="D718">
         <v>33.617138486194797</v>
@@ -10822,10 +10829,10 @@
         <v>14</v>
       </c>
       <c r="B719" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C719">
-        <v>2.4359999999999999</v>
+        <v>11.53</v>
       </c>
       <c r="D719">
         <v>1.9889856711399401</v>
@@ -10836,10 +10843,10 @@
         <v>15</v>
       </c>
       <c r="B720" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C720">
-        <v>0</v>
+        <v>11.53</v>
       </c>
       <c r="D720">
         <v>0</v>
@@ -10850,10 +10857,10 @@
         <v>16</v>
       </c>
       <c r="B721" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C721">
-        <v>0</v>
+        <v>11.53</v>
       </c>
       <c r="D721">
         <v>0</v>
@@ -10864,7 +10871,7 @@
         <v>4</v>
       </c>
       <c r="B722" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C722">
         <v>0</v>
@@ -10878,7 +10885,7 @@
         <v>6</v>
       </c>
       <c r="B723" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C723">
         <v>1.6E-2</v>
@@ -10892,7 +10899,7 @@
         <v>7</v>
       </c>
       <c r="B724" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C724">
         <v>0</v>
@@ -10906,7 +10913,7 @@
         <v>8</v>
       </c>
       <c r="B725" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C725">
         <v>1.6E-2</v>
@@ -10920,7 +10927,7 @@
         <v>9</v>
       </c>
       <c r="B726" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C726">
         <v>2.2499999999999999E-2</v>
@@ -10934,7 +10941,7 @@
         <v>10</v>
       </c>
       <c r="B727" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C727">
         <v>9.0000000000000011E-2</v>
@@ -10948,7 +10955,7 @@
         <v>11</v>
       </c>
       <c r="B728" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C728">
         <v>2.8460000000000001</v>
@@ -10962,7 +10969,7 @@
         <v>12</v>
       </c>
       <c r="B729" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C729">
         <v>3.5999999999999997E-2</v>
@@ -10976,7 +10983,7 @@
         <v>13</v>
       </c>
       <c r="B730" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C730">
         <v>4.8000000000000001E-2</v>
@@ -10990,7 +10997,7 @@
         <v>14</v>
       </c>
       <c r="B731" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C731">
         <v>0.02</v>
@@ -11004,7 +11011,7 @@
         <v>15</v>
       </c>
       <c r="B732" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C732">
         <v>5.05</v>
@@ -11018,7 +11025,7 @@
         <v>16</v>
       </c>
       <c r="B733" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C733">
         <v>0</v>
@@ -11032,7 +11039,7 @@
         <v>4</v>
       </c>
       <c r="B734" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C734">
         <v>0.78249999999999997</v>
@@ -11046,7 +11053,7 @@
         <v>6</v>
       </c>
       <c r="B735" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C735">
         <v>1.22</v>
@@ -11060,7 +11067,7 @@
         <v>7</v>
       </c>
       <c r="B736" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C736">
         <v>0</v>
@@ -11074,7 +11081,7 @@
         <v>8</v>
       </c>
       <c r="B737" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C737">
         <v>0</v>
@@ -11088,7 +11095,7 @@
         <v>9</v>
       </c>
       <c r="B738" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C738">
         <v>1.3274999999999999</v>
@@ -11102,7 +11109,7 @@
         <v>10</v>
       </c>
       <c r="B739" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C739">
         <v>0</v>
@@ -11116,7 +11123,7 @@
         <v>11</v>
       </c>
       <c r="B740" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C740">
         <v>0.40600000000000003</v>
@@ -11130,7 +11137,7 @@
         <v>12</v>
       </c>
       <c r="B741" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C741">
         <v>0</v>
@@ -11144,7 +11151,7 @@
         <v>13</v>
       </c>
       <c r="B742" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C742">
         <v>0.54200000000000004</v>
@@ -11158,7 +11165,7 @@
         <v>14</v>
       </c>
       <c r="B743" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C743">
         <v>0</v>
@@ -11172,7 +11179,7 @@
         <v>15</v>
       </c>
       <c r="B744" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C744">
         <v>0</v>
@@ -11186,7 +11193,7 @@
         <v>16</v>
       </c>
       <c r="B745" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C745">
         <v>0</v>
@@ -11200,7 +11207,7 @@
         <v>4</v>
       </c>
       <c r="B746" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C746">
         <v>0</v>
@@ -11214,7 +11221,7 @@
         <v>6</v>
       </c>
       <c r="B747" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C747">
         <v>2.3159999999999998</v>
@@ -11228,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="B748" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C748">
         <v>0</v>
@@ -11242,7 +11249,7 @@
         <v>8</v>
       </c>
       <c r="B749" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C749">
         <v>0</v>
@@ -11256,7 +11263,7 @@
         <v>9</v>
       </c>
       <c r="B750" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C750">
         <v>0.48499999999999999</v>
@@ -11270,7 +11277,7 @@
         <v>10</v>
       </c>
       <c r="B751" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C751">
         <v>0.78333333333333321</v>
@@ -11284,7 +11291,7 @@
         <v>11</v>
       </c>
       <c r="B752" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C752">
         <v>3.0939999999999999</v>
@@ -11298,7 +11305,7 @@
         <v>12</v>
       </c>
       <c r="B753" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C753">
         <v>0</v>
@@ -11312,7 +11319,7 @@
         <v>13</v>
       </c>
       <c r="B754" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C754">
         <v>0</v>
@@ -11326,7 +11333,7 @@
         <v>14</v>
       </c>
       <c r="B755" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C755">
         <v>0.62</v>
@@ -11340,7 +11347,7 @@
         <v>15</v>
       </c>
       <c r="B756" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C756">
         <v>2.75</v>
@@ -11354,7 +11361,7 @@
         <v>16</v>
       </c>
       <c r="B757" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C757">
         <v>0</v>
@@ -11368,7 +11375,7 @@
         <v>4</v>
       </c>
       <c r="B758" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C758">
         <v>0</v>
@@ -11382,7 +11389,7 @@
         <v>6</v>
       </c>
       <c r="B759" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C759">
         <v>2.8820000000000001</v>
@@ -11396,7 +11403,7 @@
         <v>7</v>
       </c>
       <c r="B760" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C760">
         <v>0</v>
@@ -11410,7 +11417,7 @@
         <v>8</v>
       </c>
       <c r="B761" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C761">
         <v>0</v>
@@ -11424,7 +11431,7 @@
         <v>9</v>
       </c>
       <c r="B762" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C762">
         <v>1.22</v>
@@ -11438,7 +11445,7 @@
         <v>10</v>
       </c>
       <c r="B763" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C763">
         <v>0</v>
@@ -11452,7 +11459,7 @@
         <v>11</v>
       </c>
       <c r="B764" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C764">
         <v>2.1880000000000002</v>
@@ -11466,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="B765" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C765">
         <v>0</v>
@@ -11480,7 +11487,7 @@
         <v>13</v>
       </c>
       <c r="B766" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C766">
         <v>0.22800000000000001</v>
@@ -11494,7 +11501,7 @@
         <v>14</v>
       </c>
       <c r="B767" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C767">
         <v>0</v>
@@ -11508,7 +11515,7 @@
         <v>15</v>
       </c>
       <c r="B768" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C768">
         <v>3.18</v>
@@ -11522,7 +11529,7 @@
         <v>16</v>
       </c>
       <c r="B769" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C769">
         <v>0</v>
@@ -11536,7 +11543,7 @@
         <v>4</v>
       </c>
       <c r="B770" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C770">
         <v>0</v>
@@ -11550,7 +11557,7 @@
         <v>6</v>
       </c>
       <c r="B771" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C771">
         <v>0</v>
@@ -11564,7 +11571,7 @@
         <v>7</v>
       </c>
       <c r="B772" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C772">
         <v>0.505</v>
@@ -11578,7 +11585,7 @@
         <v>8</v>
       </c>
       <c r="B773" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C773">
         <v>0</v>
@@ -11592,7 +11599,7 @@
         <v>9</v>
       </c>
       <c r="B774" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C774">
         <v>0</v>
@@ -11606,7 +11613,7 @@
         <v>10</v>
       </c>
       <c r="B775" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C775">
         <v>0</v>
@@ -11620,7 +11627,7 @@
         <v>11</v>
       </c>
       <c r="B776" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C776">
         <v>0</v>
@@ -11634,7 +11641,7 @@
         <v>12</v>
       </c>
       <c r="B777" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C777">
         <v>0</v>
@@ -11648,7 +11655,7 @@
         <v>13</v>
       </c>
       <c r="B778" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C778">
         <v>0</v>
@@ -11662,7 +11669,7 @@
         <v>14</v>
       </c>
       <c r="B779" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C779">
         <v>0.77200000000000002</v>
@@ -11676,7 +11683,7 @@
         <v>15</v>
       </c>
       <c r="B780" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C780">
         <v>0</v>
@@ -11690,7 +11697,7 @@
         <v>16</v>
       </c>
       <c r="B781" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C781">
         <v>0</v>
@@ -11704,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="B782" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C782">
         <v>0</v>
@@ -11718,7 +11725,7 @@
         <v>6</v>
       </c>
       <c r="B783" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C783">
         <v>0</v>
@@ -11732,7 +11739,7 @@
         <v>7</v>
       </c>
       <c r="B784" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C784">
         <v>0</v>
@@ -11746,7 +11753,7 @@
         <v>8</v>
       </c>
       <c r="B785" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C785">
         <v>0.26800000000000002</v>
@@ -11760,7 +11767,7 @@
         <v>9</v>
       </c>
       <c r="B786" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C786">
         <v>0</v>
@@ -11774,7 +11781,7 @@
         <v>10</v>
       </c>
       <c r="B787" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C787">
         <v>0.37333333333333341</v>
@@ -11788,7 +11795,7 @@
         <v>11</v>
       </c>
       <c r="B788" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C788">
         <v>0</v>
@@ -11802,7 +11809,7 @@
         <v>12</v>
       </c>
       <c r="B789" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C789">
         <v>0</v>
@@ -11816,7 +11823,7 @@
         <v>13</v>
       </c>
       <c r="B790" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C790">
         <v>0.23</v>
@@ -11830,7 +11837,7 @@
         <v>14</v>
       </c>
       <c r="B791" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C791">
         <v>0.26200000000000001</v>
@@ -11844,7 +11851,7 @@
         <v>15</v>
       </c>
       <c r="B792" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C792">
         <v>0</v>
@@ -11858,7 +11865,7 @@
         <v>16</v>
       </c>
       <c r="B793" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C793">
         <v>0</v>
@@ -11872,7 +11879,7 @@
         <v>4</v>
       </c>
       <c r="B794" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C794">
         <v>0</v>
@@ -11886,7 +11893,7 @@
         <v>6</v>
       </c>
       <c r="B795" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C795">
         <v>0</v>
@@ -11900,7 +11907,7 @@
         <v>7</v>
       </c>
       <c r="B796" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C796">
         <v>0</v>
@@ -11914,7 +11921,7 @@
         <v>8</v>
       </c>
       <c r="B797" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C797">
         <v>0</v>
@@ -11928,7 +11935,7 @@
         <v>9</v>
       </c>
       <c r="B798" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C798">
         <v>0</v>
@@ -11942,7 +11949,7 @@
         <v>10</v>
       </c>
       <c r="B799" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C799">
         <v>0</v>
@@ -11956,7 +11963,7 @@
         <v>11</v>
       </c>
       <c r="B800" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C800">
         <v>0</v>
@@ -11970,7 +11977,7 @@
         <v>12</v>
       </c>
       <c r="B801" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C801">
         <v>0</v>
@@ -11984,7 +11991,7 @@
         <v>13</v>
       </c>
       <c r="B802" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C802">
         <v>0</v>
@@ -11998,7 +12005,7 @@
         <v>14</v>
       </c>
       <c r="B803" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C803">
         <v>0</v>
@@ -12012,7 +12019,7 @@
         <v>15</v>
       </c>
       <c r="B804" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C804">
         <v>0</v>
@@ -12026,7 +12033,7 @@
         <v>16</v>
       </c>
       <c r="B805" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C805">
         <v>0</v>
@@ -12040,7 +12047,7 @@
         <v>4</v>
       </c>
       <c r="B806" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C806">
         <v>0</v>
@@ -12054,7 +12061,7 @@
         <v>6</v>
       </c>
       <c r="B807" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C807">
         <v>0</v>
@@ -12068,7 +12075,7 @@
         <v>7</v>
       </c>
       <c r="B808" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C808">
         <v>0</v>
@@ -12082,7 +12089,7 @@
         <v>8</v>
       </c>
       <c r="B809" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C809">
         <v>0</v>
@@ -12096,7 +12103,7 @@
         <v>9</v>
       </c>
       <c r="B810" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C810">
         <v>0</v>
@@ -12110,7 +12117,7 @@
         <v>10</v>
       </c>
       <c r="B811" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C811">
         <v>0</v>
@@ -12124,7 +12131,7 @@
         <v>11</v>
       </c>
       <c r="B812" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C812">
         <v>0</v>
@@ -12138,7 +12145,7 @@
         <v>12</v>
       </c>
       <c r="B813" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C813">
         <v>0</v>
@@ -12152,7 +12159,7 @@
         <v>13</v>
       </c>
       <c r="B814" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C814">
         <v>0</v>
@@ -12166,7 +12173,7 @@
         <v>14</v>
       </c>
       <c r="B815" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C815">
         <v>0</v>
@@ -12180,7 +12187,7 @@
         <v>15</v>
       </c>
       <c r="B816" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C816">
         <v>0</v>
@@ -12194,7 +12201,7 @@
         <v>16</v>
       </c>
       <c r="B817" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C817">
         <v>0</v>
@@ -12208,7 +12215,7 @@
         <v>4</v>
       </c>
       <c r="B818" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C818">
         <v>0</v>
@@ -12222,7 +12229,7 @@
         <v>6</v>
       </c>
       <c r="B819" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C819">
         <v>0</v>
@@ -12236,7 +12243,7 @@
         <v>7</v>
       </c>
       <c r="B820" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C820">
         <v>0</v>
@@ -12250,7 +12257,7 @@
         <v>8</v>
       </c>
       <c r="B821" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C821">
         <v>0</v>
@@ -12264,7 +12271,7 @@
         <v>9</v>
       </c>
       <c r="B822" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C822">
         <v>0</v>
@@ -12278,7 +12285,7 @@
         <v>10</v>
       </c>
       <c r="B823" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C823">
         <v>0</v>
@@ -12292,7 +12299,7 @@
         <v>11</v>
       </c>
       <c r="B824" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C824">
         <v>0</v>
@@ -12306,7 +12313,7 @@
         <v>12</v>
       </c>
       <c r="B825" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C825">
         <v>0</v>
@@ -12320,7 +12327,7 @@
         <v>13</v>
       </c>
       <c r="B826" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C826">
         <v>0</v>
@@ -12334,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="B827" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C827">
         <v>0</v>
@@ -12348,7 +12355,7 @@
         <v>15</v>
       </c>
       <c r="B828" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C828">
         <v>0</v>
@@ -12362,7 +12369,7 @@
         <v>16</v>
       </c>
       <c r="B829" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C829">
         <v>0</v>
@@ -12376,7 +12383,7 @@
         <v>4</v>
       </c>
       <c r="B830" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C830">
         <v>0</v>
@@ -12390,7 +12397,7 @@
         <v>6</v>
       </c>
       <c r="B831" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C831">
         <v>0</v>
@@ -12404,7 +12411,7 @@
         <v>7</v>
       </c>
       <c r="B832" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C832">
         <v>4.0999999999999996</v>
@@ -12418,7 +12425,7 @@
         <v>8</v>
       </c>
       <c r="B833" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C833">
         <v>0</v>
@@ -12432,7 +12439,7 @@
         <v>9</v>
       </c>
       <c r="B834" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C834">
         <v>0.78749999999999998</v>
@@ -12446,7 +12453,7 @@
         <v>10</v>
       </c>
       <c r="B835" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C835">
         <v>0</v>
@@ -12460,7 +12467,7 @@
         <v>11</v>
       </c>
       <c r="B836" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C836">
         <v>13.497999999999999</v>
@@ -12474,7 +12481,7 @@
         <v>12</v>
       </c>
       <c r="B837" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C837">
         <v>0.51400000000000001</v>
@@ -12488,7 +12495,7 @@
         <v>13</v>
       </c>
       <c r="B838" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C838">
         <v>0.59400000000000008</v>
@@ -12502,7 +12509,7 @@
         <v>14</v>
       </c>
       <c r="B839" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C839">
         <v>0.6359999999999999</v>
@@ -12516,7 +12523,7 @@
         <v>15</v>
       </c>
       <c r="B840" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C840">
         <v>0</v>
@@ -12530,7 +12537,7 @@
         <v>16</v>
       </c>
       <c r="B841" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C841">
         <v>0</v>
@@ -12544,7 +12551,7 @@
         <v>4</v>
       </c>
       <c r="B842" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C842">
         <v>0</v>
@@ -12558,7 +12565,7 @@
         <v>6</v>
       </c>
       <c r="B843" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C843">
         <v>0</v>
@@ -12572,7 +12579,7 @@
         <v>7</v>
       </c>
       <c r="B844" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C844">
         <v>0</v>
@@ -12586,7 +12593,7 @@
         <v>8</v>
       </c>
       <c r="B845" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C845">
         <v>0</v>
@@ -12600,7 +12607,7 @@
         <v>9</v>
       </c>
       <c r="B846" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C846">
         <v>0</v>
@@ -12614,7 +12621,7 @@
         <v>10</v>
       </c>
       <c r="B847" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C847">
         <v>0</v>
@@ -12628,7 +12635,7 @@
         <v>11</v>
       </c>
       <c r="B848" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C848">
         <v>0</v>
@@ -12642,7 +12649,7 @@
         <v>12</v>
       </c>
       <c r="B849" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C849">
         <v>0</v>
@@ -12656,7 +12663,7 @@
         <v>13</v>
       </c>
       <c r="B850" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C850">
         <v>0</v>
@@ -12670,7 +12677,7 @@
         <v>14</v>
       </c>
       <c r="B851" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C851">
         <v>0</v>
@@ -12684,7 +12691,7 @@
         <v>15</v>
       </c>
       <c r="B852" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C852">
         <v>0</v>
@@ -12698,7 +12705,7 @@
         <v>16</v>
       </c>
       <c r="B853" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C853">
         <v>0</v>
@@ -12712,7 +12719,7 @@
         <v>4</v>
       </c>
       <c r="B854" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C854">
         <v>0</v>
@@ -12726,7 +12733,7 @@
         <v>6</v>
       </c>
       <c r="B855" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C855">
         <v>0</v>
@@ -12740,7 +12747,7 @@
         <v>7</v>
       </c>
       <c r="B856" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C856">
         <v>0</v>
@@ -12754,7 +12761,7 @@
         <v>8</v>
       </c>
       <c r="B857" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C857">
         <v>0</v>
@@ -12768,7 +12775,7 @@
         <v>9</v>
       </c>
       <c r="B858" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C858">
         <v>10.984999999999999</v>
@@ -12782,7 +12789,7 @@
         <v>10</v>
       </c>
       <c r="B859" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C859">
         <v>0</v>
@@ -12796,7 +12803,7 @@
         <v>11</v>
       </c>
       <c r="B860" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C860">
         <v>2.9220000000000002</v>
@@ -12810,7 +12817,7 @@
         <v>12</v>
       </c>
       <c r="B861" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C861">
         <v>0</v>
@@ -12824,7 +12831,7 @@
         <v>13</v>
       </c>
       <c r="B862" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C862">
         <v>0</v>
@@ -12838,7 +12845,7 @@
         <v>14</v>
       </c>
       <c r="B863" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C863">
         <v>13.71</v>
@@ -12852,7 +12859,7 @@
         <v>15</v>
       </c>
       <c r="B864" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C864">
         <v>0</v>
@@ -12866,7 +12873,7 @@
         <v>16</v>
       </c>
       <c r="B865" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C865">
         <v>0</v>
@@ -12880,7 +12887,7 @@
         <v>4</v>
       </c>
       <c r="B866" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C866">
         <v>0</v>
@@ -12894,7 +12901,7 @@
         <v>6</v>
       </c>
       <c r="B867" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C867">
         <v>0</v>
@@ -12908,7 +12915,7 @@
         <v>7</v>
       </c>
       <c r="B868" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C868">
         <v>0</v>
@@ -12922,7 +12929,7 @@
         <v>8</v>
       </c>
       <c r="B869" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C869">
         <v>0</v>
@@ -12936,7 +12943,7 @@
         <v>9</v>
       </c>
       <c r="B870" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C870">
         <v>0</v>
@@ -12950,7 +12957,7 @@
         <v>10</v>
       </c>
       <c r="B871" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C871">
         <v>0</v>
@@ -12964,7 +12971,7 @@
         <v>11</v>
       </c>
       <c r="B872" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C872">
         <v>0</v>
@@ -12978,7 +12985,7 @@
         <v>12</v>
       </c>
       <c r="B873" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C873">
         <v>0</v>
@@ -12992,7 +12999,7 @@
         <v>13</v>
       </c>
       <c r="B874" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C874">
         <v>0</v>
@@ -13006,7 +13013,7 @@
         <v>14</v>
       </c>
       <c r="B875" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C875">
         <v>0</v>
@@ -13020,7 +13027,7 @@
         <v>15</v>
       </c>
       <c r="B876" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C876">
         <v>0</v>
@@ -13034,7 +13041,7 @@
         <v>16</v>
       </c>
       <c r="B877" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C877">
         <v>0</v>
@@ -13048,7 +13055,7 @@
         <v>4</v>
       </c>
       <c r="B878" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C878">
         <v>0</v>
@@ -13062,7 +13069,7 @@
         <v>6</v>
       </c>
       <c r="B879" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C879">
         <v>0</v>
@@ -13076,7 +13083,7 @@
         <v>7</v>
       </c>
       <c r="B880" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C880">
         <v>0</v>
@@ -13090,7 +13097,7 @@
         <v>8</v>
       </c>
       <c r="B881" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C881">
         <v>0</v>
@@ -13104,7 +13111,7 @@
         <v>9</v>
       </c>
       <c r="B882" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C882">
         <v>0</v>
@@ -13118,7 +13125,7 @@
         <v>10</v>
       </c>
       <c r="B883" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C883">
         <v>0</v>
@@ -13132,7 +13139,7 @@
         <v>11</v>
       </c>
       <c r="B884" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C884">
         <v>0</v>
@@ -13146,7 +13153,7 @@
         <v>12</v>
       </c>
       <c r="B885" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C885">
         <v>0</v>
@@ -13160,7 +13167,7 @@
         <v>13</v>
       </c>
       <c r="B886" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C886">
         <v>0</v>
@@ -13174,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="B887" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C887">
         <v>0</v>
@@ -13188,7 +13195,7 @@
         <v>15</v>
       </c>
       <c r="B888" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C888">
         <v>0</v>
@@ -13202,7 +13209,7 @@
         <v>16</v>
       </c>
       <c r="B889" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C889">
         <v>0</v>
@@ -13216,7 +13223,7 @@
         <v>4</v>
       </c>
       <c r="B890" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C890">
         <v>0</v>
@@ -13230,7 +13237,7 @@
         <v>6</v>
       </c>
       <c r="B891" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C891">
         <v>0</v>
@@ -13244,7 +13251,7 @@
         <v>7</v>
       </c>
       <c r="B892" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C892">
         <v>0</v>
@@ -13258,7 +13265,7 @@
         <v>8</v>
       </c>
       <c r="B893" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C893">
         <v>0</v>
@@ -13272,7 +13279,7 @@
         <v>9</v>
       </c>
       <c r="B894" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C894">
         <v>0</v>
@@ -13286,7 +13293,7 @@
         <v>10</v>
       </c>
       <c r="B895" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C895">
         <v>0</v>
@@ -13300,7 +13307,7 @@
         <v>11</v>
       </c>
       <c r="B896" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C896">
         <v>0</v>
@@ -13314,7 +13321,7 @@
         <v>12</v>
       </c>
       <c r="B897" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C897">
         <v>0</v>
@@ -13328,7 +13335,7 @@
         <v>13</v>
       </c>
       <c r="B898" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C898">
         <v>0</v>
@@ -13342,7 +13349,7 @@
         <v>14</v>
       </c>
       <c r="B899" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C899">
         <v>0</v>
@@ -13356,7 +13363,7 @@
         <v>15</v>
       </c>
       <c r="B900" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C900">
         <v>0</v>
@@ -13370,7 +13377,7 @@
         <v>16</v>
       </c>
       <c r="B901" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C901">
         <v>0</v>
@@ -13384,7 +13391,7 @@
         <v>4</v>
       </c>
       <c r="B902" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C902">
         <v>0</v>
@@ -13398,7 +13405,7 @@
         <v>6</v>
       </c>
       <c r="B903" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C903">
         <v>0</v>
@@ -13412,7 +13419,7 @@
         <v>7</v>
       </c>
       <c r="B904" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C904">
         <v>4.9450000000000003</v>
@@ -13426,7 +13433,7 @@
         <v>8</v>
       </c>
       <c r="B905" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C905">
         <v>0</v>
@@ -13440,7 +13447,7 @@
         <v>9</v>
       </c>
       <c r="B906" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C906">
         <v>0</v>
@@ -13454,7 +13461,7 @@
         <v>10</v>
       </c>
       <c r="B907" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C907">
         <v>0</v>
@@ -13468,7 +13475,7 @@
         <v>11</v>
       </c>
       <c r="B908" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C908">
         <v>0</v>
@@ -13482,7 +13489,7 @@
         <v>12</v>
       </c>
       <c r="B909" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C909">
         <v>0</v>
@@ -13496,7 +13503,7 @@
         <v>13</v>
       </c>
       <c r="B910" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C910">
         <v>0</v>
@@ -13510,7 +13517,7 @@
         <v>14</v>
       </c>
       <c r="B911" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C911">
         <v>0</v>
@@ -13524,7 +13531,7 @@
         <v>15</v>
       </c>
       <c r="B912" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C912">
         <v>0</v>
@@ -13538,7 +13545,7 @@
         <v>16</v>
       </c>
       <c r="B913" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C913">
         <v>0</v>
@@ -13552,7 +13559,7 @@
         <v>4</v>
       </c>
       <c r="B914" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C914">
         <v>0</v>
@@ -13566,7 +13573,7 @@
         <v>6</v>
       </c>
       <c r="B915" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C915">
         <v>0</v>
@@ -13580,7 +13587,7 @@
         <v>7</v>
       </c>
       <c r="B916" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C916">
         <v>0</v>
@@ -13594,7 +13601,7 @@
         <v>8</v>
       </c>
       <c r="B917" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C917">
         <v>0</v>
@@ -13608,7 +13615,7 @@
         <v>9</v>
       </c>
       <c r="B918" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C918">
         <v>0</v>
@@ -13622,7 +13629,7 @@
         <v>10</v>
       </c>
       <c r="B919" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C919">
         <v>0</v>
@@ -13636,7 +13643,7 @@
         <v>11</v>
       </c>
       <c r="B920" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C920">
         <v>0</v>
@@ -13650,7 +13657,7 @@
         <v>12</v>
       </c>
       <c r="B921" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C921">
         <v>0</v>
@@ -13664,7 +13671,7 @@
         <v>13</v>
       </c>
       <c r="B922" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C922">
         <v>0</v>
@@ -13678,7 +13685,7 @@
         <v>14</v>
       </c>
       <c r="B923" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C923">
         <v>0</v>
@@ -13692,7 +13699,7 @@
         <v>15</v>
       </c>
       <c r="B924" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C924">
         <v>0</v>
@@ -13706,7 +13713,7 @@
         <v>16</v>
       </c>
       <c r="B925" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C925">
         <v>0</v>
@@ -13720,7 +13727,7 @@
         <v>4</v>
       </c>
       <c r="B926" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C926">
         <v>0</v>
@@ -13734,7 +13741,7 @@
         <v>6</v>
       </c>
       <c r="B927" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C927">
         <v>0</v>
@@ -13748,7 +13755,7 @@
         <v>7</v>
       </c>
       <c r="B928" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C928">
         <v>0</v>
@@ -13762,7 +13769,7 @@
         <v>8</v>
       </c>
       <c r="B929" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C929">
         <v>0</v>
@@ -13776,7 +13783,7 @@
         <v>9</v>
       </c>
       <c r="B930" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C930">
         <v>0</v>
@@ -13790,7 +13797,7 @@
         <v>10</v>
       </c>
       <c r="B931" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C931">
         <v>0</v>
@@ -13804,7 +13811,7 @@
         <v>11</v>
       </c>
       <c r="B932" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C932">
         <v>0.63200000000000001</v>
@@ -13818,7 +13825,7 @@
         <v>12</v>
       </c>
       <c r="B933" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C933">
         <v>3.6739999999999999</v>
@@ -13832,7 +13839,7 @@
         <v>13</v>
       </c>
       <c r="B934" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C934">
         <v>0</v>
@@ -13846,7 +13853,7 @@
         <v>14</v>
       </c>
       <c r="B935" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C935">
         <v>0</v>
@@ -13860,7 +13867,7 @@
         <v>15</v>
       </c>
       <c r="B936" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C936">
         <v>0</v>
@@ -13874,7 +13881,7 @@
         <v>16</v>
       </c>
       <c r="B937" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C937">
         <v>0</v>
@@ -13888,7 +13895,7 @@
         <v>4</v>
       </c>
       <c r="B938" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C938">
         <v>0</v>
@@ -13902,7 +13909,7 @@
         <v>6</v>
       </c>
       <c r="B939" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C939">
         <v>0</v>
@@ -13916,7 +13923,7 @@
         <v>7</v>
       </c>
       <c r="B940" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C940">
         <v>0.44500000000000001</v>
@@ -13930,7 +13937,7 @@
         <v>8</v>
       </c>
       <c r="B941" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C941">
         <v>0.42799999999999999</v>
@@ -13944,7 +13951,7 @@
         <v>9</v>
       </c>
       <c r="B942" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C942">
         <v>0.54249999999999998</v>
@@ -13958,7 +13965,7 @@
         <v>10</v>
       </c>
       <c r="B943" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C943">
         <v>2.6566666666666672</v>
@@ -13972,7 +13979,7 @@
         <v>11</v>
       </c>
       <c r="B944" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C944">
         <v>0.89399999999999991</v>
@@ -13986,7 +13993,7 @@
         <v>12</v>
       </c>
       <c r="B945" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C945">
         <v>0</v>
@@ -14000,7 +14007,7 @@
         <v>13</v>
       </c>
       <c r="B946" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C946">
         <v>3.8180000000000001</v>
@@ -14014,7 +14021,7 @@
         <v>14</v>
       </c>
       <c r="B947" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C947">
         <v>0</v>
@@ -14028,7 +14035,7 @@
         <v>15</v>
       </c>
       <c r="B948" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C948">
         <v>0</v>
@@ -14042,7 +14049,7 @@
         <v>16</v>
       </c>
       <c r="B949" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C949">
         <v>0</v>
@@ -14056,10 +14063,10 @@
         <v>4</v>
       </c>
       <c r="B950" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C950">
-        <v>44.707500000000003</v>
+        <v>16578</v>
       </c>
       <c r="D950">
         <v>77.435661479385587</v>
@@ -14070,10 +14077,10 @@
         <v>6</v>
       </c>
       <c r="B951" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C951">
-        <v>2366.2759999999998</v>
+        <v>16578</v>
       </c>
       <c r="D951">
         <v>2967.6281006460358</v>
@@ -14084,10 +14091,10 @@
         <v>7</v>
       </c>
       <c r="B952" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C952">
-        <v>570.70249999999999</v>
+        <v>16578</v>
       </c>
       <c r="D952">
         <v>719.75717792096395</v>
@@ -14098,10 +14105,10 @@
         <v>8</v>
       </c>
       <c r="B953" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C953">
-        <v>3746.5459999999998</v>
+        <v>16578</v>
       </c>
       <c r="D953">
         <v>6661.925191214923</v>
@@ -14112,10 +14119,10 @@
         <v>9</v>
       </c>
       <c r="B954" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C954">
-        <v>13930.885</v>
+        <v>16578</v>
       </c>
       <c r="D954">
         <v>19002.412720068602</v>
@@ -14126,10 +14133,10 @@
         <v>10</v>
       </c>
       <c r="B955" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C955">
-        <v>7581.916666666667</v>
+        <v>16578</v>
       </c>
       <c r="D955">
         <v>10472.069643887129</v>
@@ -14140,10 +14147,10 @@
         <v>11</v>
       </c>
       <c r="B956" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C956">
-        <v>81017.358000000007</v>
+        <v>16578</v>
       </c>
       <c r="D956">
         <v>154198.84594124931</v>
@@ -14154,10 +14161,10 @@
         <v>12</v>
       </c>
       <c r="B957" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C957">
-        <v>2734.7579999999998</v>
+        <v>16578</v>
       </c>
       <c r="D957">
         <v>1769.2192916357201</v>
@@ -14168,10 +14175,10 @@
         <v>13</v>
       </c>
       <c r="B958" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C958">
-        <v>45786.017999999996</v>
+        <v>16578</v>
       </c>
       <c r="D958">
         <v>81917.237173917776</v>
@@ -14183,10 +14190,10 @@
         <v>14</v>
       </c>
       <c r="B959" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C959">
-        <v>7098.2</v>
+        <v>16578</v>
       </c>
       <c r="D959">
         <v>8289.8477132719399</v>
@@ -14197,10 +14204,10 @@
         <v>15</v>
       </c>
       <c r="B960" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C960">
-        <v>90.16</v>
+        <v>16578</v>
       </c>
       <c r="D960">
         <v>0</v>
@@ -14211,10 +14218,10 @@
         <v>16</v>
       </c>
       <c r="B961" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C961">
-        <v>0</v>
+        <v>16578</v>
       </c>
       <c r="D961">
         <v>0</v>
@@ -14225,7 +14232,7 @@
         <v>4</v>
       </c>
       <c r="B962" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C962">
         <v>0</v>
@@ -14239,7 +14246,7 @@
         <v>6</v>
       </c>
       <c r="B963" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C963">
         <v>44.792000000000002</v>
@@ -14253,7 +14260,7 @@
         <v>7</v>
       </c>
       <c r="B964" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C964">
         <v>146.17250000000001</v>
@@ -14267,7 +14274,7 @@
         <v>8</v>
       </c>
       <c r="B965" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C965">
         <v>380.74400000000003</v>
@@ -14281,7 +14288,7 @@
         <v>9</v>
       </c>
       <c r="B966" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C966">
         <v>38.72</v>
@@ -14295,7 +14302,7 @@
         <v>10</v>
       </c>
       <c r="B967" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C967">
         <v>8.24</v>
@@ -14309,7 +14316,7 @@
         <v>11</v>
       </c>
       <c r="B968" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C968">
         <v>549.35400000000004</v>
@@ -14323,7 +14330,7 @@
         <v>12</v>
       </c>
       <c r="B969" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C969">
         <v>0</v>
@@ -14337,7 +14344,7 @@
         <v>13</v>
       </c>
       <c r="B970" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C970">
         <v>12.956</v>
@@ -14351,7 +14358,7 @@
         <v>14</v>
       </c>
       <c r="B971" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C971">
         <v>39.642000000000003</v>
@@ -14365,7 +14372,7 @@
         <v>15</v>
       </c>
       <c r="B972" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C972">
         <v>58.1</v>
@@ -14379,7 +14386,7 @@
         <v>16</v>
       </c>
       <c r="B973" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C973">
         <v>0</v>
@@ -14393,7 +14400,7 @@
         <v>4</v>
       </c>
       <c r="B974" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C974">
         <v>0</v>
@@ -14407,7 +14414,7 @@
         <v>6</v>
       </c>
       <c r="B975" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C975">
         <v>0</v>
@@ -14421,7 +14428,7 @@
         <v>7</v>
       </c>
       <c r="B976" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C976">
         <v>0</v>
@@ -14435,7 +14442,7 @@
         <v>8</v>
       </c>
       <c r="B977" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C977">
         <v>2.5019999999999998</v>
@@ -14449,7 +14456,7 @@
         <v>9</v>
       </c>
       <c r="B978" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C978">
         <v>447.14499999999998</v>
@@ -14463,7 +14470,7 @@
         <v>10</v>
       </c>
       <c r="B979" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C979">
         <v>11.46666666666667</v>
@@ -14477,7 +14484,7 @@
         <v>11</v>
       </c>
       <c r="B980" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C980">
         <v>44.066000000000003</v>
@@ -14491,7 +14498,7 @@
         <v>12</v>
       </c>
       <c r="B981" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C981">
         <v>0</v>
@@ -14505,7 +14512,7 @@
         <v>13</v>
       </c>
       <c r="B982" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C982">
         <v>6.984</v>
@@ -14519,7 +14526,7 @@
         <v>14</v>
       </c>
       <c r="B983" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C983">
         <v>0</v>
@@ -14533,7 +14540,7 @@
         <v>15</v>
       </c>
       <c r="B984" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C984">
         <v>4366.1000000000004</v>
@@ -14547,7 +14554,7 @@
         <v>16</v>
       </c>
       <c r="B985" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C985">
         <v>0</v>
@@ -14561,7 +14568,7 @@
         <v>4</v>
       </c>
       <c r="B986" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C986">
         <v>0</v>
@@ -14575,7 +14582,7 @@
         <v>6</v>
       </c>
       <c r="B987" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C987">
         <v>0</v>
@@ -14589,7 +14596,7 @@
         <v>7</v>
       </c>
       <c r="B988" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C988">
         <v>95.1875</v>
@@ -14603,7 +14610,7 @@
         <v>8</v>
       </c>
       <c r="B989" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C989">
         <v>1.522</v>
@@ -14617,7 +14624,7 @@
         <v>9</v>
       </c>
       <c r="B990" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C990">
         <v>82.539999999999992</v>
@@ -14631,7 +14638,7 @@
         <v>10</v>
       </c>
       <c r="B991" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C991">
         <v>4.3099999999999996</v>
@@ -14645,7 +14652,7 @@
         <v>11</v>
       </c>
       <c r="B992" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C992">
         <v>96.894000000000005</v>
@@ -14659,7 +14666,7 @@
         <v>12</v>
       </c>
       <c r="B993" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C993">
         <v>5.2439999999999998</v>
@@ -14673,7 +14680,7 @@
         <v>13</v>
       </c>
       <c r="B994" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C994">
         <v>28.262</v>
@@ -14687,7 +14694,7 @@
         <v>14</v>
       </c>
       <c r="B995" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C995">
         <v>15.821999999999999</v>
@@ -14701,7 +14708,7 @@
         <v>15</v>
       </c>
       <c r="B996" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C996">
         <v>2.38</v>
@@ -14715,7 +14722,7 @@
         <v>16</v>
       </c>
       <c r="B997" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C997">
         <v>0</v>
@@ -14729,7 +14736,7 @@
         <v>4</v>
       </c>
       <c r="B998" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C998">
         <v>137.61250000000001</v>
@@ -14743,7 +14750,7 @@
         <v>6</v>
       </c>
       <c r="B999" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C999">
         <v>449.70200000000011</v>
@@ -14757,7 +14764,7 @@
         <v>7</v>
       </c>
       <c r="B1000" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1000">
         <v>8356.7000000000007</v>
@@ -14771,7 +14778,7 @@
         <v>8</v>
       </c>
       <c r="B1001" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1001">
         <v>7.6100000000000012</v>
@@ -14785,7 +14792,7 @@
         <v>9</v>
       </c>
       <c r="B1002" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1002">
         <v>5218.4224999999997</v>
@@ -14799,7 +14806,7 @@
         <v>10</v>
       </c>
       <c r="B1003" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1003">
         <v>142.57</v>
@@ -14813,7 +14820,7 @@
         <v>11</v>
       </c>
       <c r="B1004" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1004">
         <v>838.37400000000002</v>
@@ -14827,7 +14834,7 @@
         <v>12</v>
       </c>
       <c r="B1005" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1005">
         <v>9533.4440000000013</v>
@@ -14841,7 +14848,7 @@
         <v>13</v>
       </c>
       <c r="B1006" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1006">
         <v>607.33600000000001</v>
@@ -14855,7 +14862,7 @@
         <v>14</v>
       </c>
       <c r="B1007" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1007">
         <v>26.623999999999999</v>
@@ -14869,7 +14876,7 @@
         <v>15</v>
       </c>
       <c r="B1008" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1008">
         <v>3030.94</v>
@@ -14883,7 +14890,7 @@
         <v>16</v>
       </c>
       <c r="B1009" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1009">
         <v>0</v>
@@ -14897,7 +14904,7 @@
         <v>4</v>
       </c>
       <c r="B1010" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1010">
         <v>1.4325000000000001</v>
@@ -14911,7 +14918,7 @@
         <v>6</v>
       </c>
       <c r="B1011" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1011">
         <v>7.4540000000000006</v>
@@ -14925,7 +14932,7 @@
         <v>7</v>
       </c>
       <c r="B1012" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1012">
         <v>79.472499999999997</v>
@@ -14939,7 +14946,7 @@
         <v>8</v>
       </c>
       <c r="B1013" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1013">
         <v>16.718</v>
@@ -14953,7 +14960,7 @@
         <v>9</v>
       </c>
       <c r="B1014" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1014">
         <v>77.457499999999996</v>
@@ -14967,7 +14974,7 @@
         <v>10</v>
       </c>
       <c r="B1015" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1015">
         <v>41.636666666666663</v>
@@ -14981,7 +14988,7 @@
         <v>11</v>
       </c>
       <c r="B1016" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1016">
         <v>220.18199999999999</v>
@@ -14995,7 +15002,7 @@
         <v>12</v>
       </c>
       <c r="B1017" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1017">
         <v>147.376</v>
@@ -15009,7 +15016,7 @@
         <v>13</v>
       </c>
       <c r="B1018" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1018">
         <v>19.905999999999999</v>
@@ -15023,7 +15030,7 @@
         <v>14</v>
       </c>
       <c r="B1019" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1019">
         <v>59.868000000000009</v>
@@ -15037,7 +15044,7 @@
         <v>15</v>
       </c>
       <c r="B1020" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1020">
         <v>7.12</v>
@@ -15051,7 +15058,7 @@
         <v>16</v>
       </c>
       <c r="B1021" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1021">
         <v>2.56</v>
@@ -15065,7 +15072,7 @@
         <v>4</v>
       </c>
       <c r="B1022" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1022">
         <v>34.862499999999997</v>
@@ -15079,7 +15086,7 @@
         <v>6</v>
       </c>
       <c r="B1023" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1023">
         <v>91.614000000000004</v>
@@ -15093,7 +15100,7 @@
         <v>7</v>
       </c>
       <c r="B1024" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1024">
         <v>122.2675</v>
@@ -15107,7 +15114,7 @@
         <v>8</v>
       </c>
       <c r="B1025" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1025">
         <v>10.852</v>
@@ -15121,7 +15128,7 @@
         <v>9</v>
       </c>
       <c r="B1026" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1026">
         <v>1505.4075</v>
@@ -15135,7 +15142,7 @@
         <v>10</v>
       </c>
       <c r="B1027" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1027">
         <v>433.64333333333337</v>
@@ -15149,7 +15156,7 @@
         <v>11</v>
       </c>
       <c r="B1028" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1028">
         <v>1051.3420000000001</v>
@@ -15163,7 +15170,7 @@
         <v>12</v>
       </c>
       <c r="B1029" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1029">
         <v>264.36599999999999</v>
@@ -15177,7 +15184,7 @@
         <v>13</v>
       </c>
       <c r="B1030" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1030">
         <v>2193.1260000000002</v>
@@ -15191,7 +15198,7 @@
         <v>14</v>
       </c>
       <c r="B1031" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1031">
         <v>30.634</v>
@@ -15205,7 +15212,7 @@
         <v>15</v>
       </c>
       <c r="B1032" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1032">
         <v>21.19</v>
@@ -15219,7 +15226,7 @@
         <v>16</v>
       </c>
       <c r="B1033" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C1033">
         <v>122.19</v>
@@ -15233,7 +15240,7 @@
         <v>4</v>
       </c>
       <c r="B1034" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1034">
         <v>15.8925</v>
@@ -15247,7 +15254,7 @@
         <v>6</v>
       </c>
       <c r="B1035" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1035">
         <v>130.93</v>
@@ -15261,7 +15268,7 @@
         <v>7</v>
       </c>
       <c r="B1036" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1036">
         <v>51.36</v>
@@ -15275,7 +15282,7 @@
         <v>8</v>
       </c>
       <c r="B1037" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1037">
         <v>2.2919999999999998</v>
@@ -15289,7 +15296,7 @@
         <v>9</v>
       </c>
       <c r="B1038" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1038">
         <v>5171.4749999999995</v>
@@ -15303,7 +15310,7 @@
         <v>10</v>
       </c>
       <c r="B1039" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1039">
         <v>1158.0899999999999</v>
@@ -15317,7 +15324,7 @@
         <v>11</v>
       </c>
       <c r="B1040" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1040">
         <v>716.27600000000007</v>
@@ -15331,7 +15338,7 @@
         <v>12</v>
       </c>
       <c r="B1041" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1041">
         <v>499.34800000000001</v>
@@ -15345,7 +15352,7 @@
         <v>13</v>
       </c>
       <c r="B1042" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1042">
         <v>2340.4940000000001</v>
@@ -15359,7 +15366,7 @@
         <v>14</v>
       </c>
       <c r="B1043" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1043">
         <v>12.238</v>
@@ -15373,7 +15380,7 @@
         <v>15</v>
       </c>
       <c r="B1044" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1044">
         <v>0</v>
@@ -15387,7 +15394,7 @@
         <v>16</v>
       </c>
       <c r="B1045" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1045">
         <v>116.535</v>
@@ -15401,7 +15408,7 @@
         <v>4</v>
       </c>
       <c r="B1046" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1046">
         <v>4.5075000000000003</v>
@@ -15415,7 +15422,7 @@
         <v>6</v>
       </c>
       <c r="B1047" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1047">
         <v>286.21400000000011</v>
@@ -15429,7 +15436,7 @@
         <v>7</v>
       </c>
       <c r="B1048" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1048">
         <v>14.215</v>
@@ -15443,7 +15450,7 @@
         <v>8</v>
       </c>
       <c r="B1049" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1049">
         <v>1.8520000000000001</v>
@@ -15457,7 +15464,7 @@
         <v>9</v>
       </c>
       <c r="B1050" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1050">
         <v>5739.1525000000001</v>
@@ -15471,7 +15478,7 @@
         <v>10</v>
       </c>
       <c r="B1051" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1051">
         <v>1119.156666666667</v>
@@ -15485,7 +15492,7 @@
         <v>11</v>
       </c>
       <c r="B1052" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1052">
         <v>813.75199999999995</v>
@@ -15499,7 +15506,7 @@
         <v>12</v>
       </c>
       <c r="B1053" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1053">
         <v>680.73</v>
@@ -15513,7 +15520,7 @@
         <v>13</v>
       </c>
       <c r="B1054" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1054">
         <v>1122.9000000000001</v>
@@ -15527,7 +15534,7 @@
         <v>14</v>
       </c>
       <c r="B1055" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1055">
         <v>9.3420000000000005</v>
@@ -15541,7 +15548,7 @@
         <v>15</v>
       </c>
       <c r="B1056" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1056">
         <v>0</v>
@@ -15555,7 +15562,7 @@
         <v>16</v>
       </c>
       <c r="B1057" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1057">
         <v>30.245000000000001</v>
@@ -15569,7 +15576,7 @@
         <v>4</v>
       </c>
       <c r="B1082" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1082">
         <v>147.0625</v>
@@ -15583,7 +15590,7 @@
         <v>6</v>
       </c>
       <c r="B1083" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1083">
         <v>3483.3739999999998</v>
@@ -15597,7 +15604,7 @@
         <v>7</v>
       </c>
       <c r="B1084" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1084">
         <v>3634.21</v>
@@ -15611,7 +15618,7 @@
         <v>8</v>
       </c>
       <c r="B1085" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1085">
         <v>328.91199999999998</v>
@@ -15625,7 +15632,7 @@
         <v>9</v>
       </c>
       <c r="B1086" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1086">
         <v>6993.0575000000008</v>
@@ -15639,7 +15646,7 @@
         <v>10</v>
       </c>
       <c r="B1087" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1087">
         <v>1108.1833333333329</v>
@@ -15653,7 +15660,7 @@
         <v>11</v>
       </c>
       <c r="B1088" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1088">
         <v>5551.6540000000005</v>
@@ -15667,7 +15674,7 @@
         <v>12</v>
       </c>
       <c r="B1089" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1089">
         <v>2652.5720000000001</v>
@@ -15681,7 +15688,7 @@
         <v>13</v>
       </c>
       <c r="B1090" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1090">
         <v>2668.4279999999999</v>
@@ -15695,7 +15702,7 @@
         <v>14</v>
       </c>
       <c r="B1091" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1091">
         <v>3994.76</v>
@@ -15709,7 +15716,7 @@
         <v>15</v>
       </c>
       <c r="B1092" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1092">
         <v>10137.86</v>
@@ -15723,7 +15730,7 @@
         <v>16</v>
       </c>
       <c r="B1093" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1093">
         <v>46.52</v>
@@ -15737,7 +15744,7 @@
         <v>4</v>
       </c>
       <c r="B1094" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1094">
         <v>0</v>
@@ -15751,7 +15758,7 @@
         <v>6</v>
       </c>
       <c r="B1095" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1095">
         <v>0</v>
@@ -15765,7 +15772,7 @@
         <v>7</v>
       </c>
       <c r="B1096" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1096">
         <v>0</v>
@@ -15779,7 +15786,7 @@
         <v>8</v>
       </c>
       <c r="B1097" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1097">
         <v>0</v>
@@ -15793,7 +15800,7 @@
         <v>9</v>
       </c>
       <c r="B1098" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1098">
         <v>0</v>
@@ -15807,7 +15814,7 @@
         <v>10</v>
       </c>
       <c r="B1099" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1099">
         <v>0</v>
@@ -15821,7 +15828,7 @@
         <v>11</v>
       </c>
       <c r="B1100" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1100">
         <v>5.4260000000000002</v>
@@ -15835,7 +15842,7 @@
         <v>12</v>
       </c>
       <c r="B1101" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1101">
         <v>4.4560000000000004</v>
@@ -15849,7 +15856,7 @@
         <v>13</v>
       </c>
       <c r="B1102" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1102">
         <v>46.112000000000002</v>
@@ -15863,7 +15870,7 @@
         <v>14</v>
       </c>
       <c r="B1103" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1103">
         <v>0</v>
@@ -15877,7 +15884,7 @@
         <v>15</v>
       </c>
       <c r="B1104" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1104">
         <v>173.34</v>
@@ -15891,7 +15898,7 @@
         <v>16</v>
       </c>
       <c r="B1105" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1105">
         <v>0</v>
@@ -15905,7 +15912,7 @@
         <v>4</v>
       </c>
       <c r="B1106" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1106">
         <v>1.81</v>
@@ -15919,7 +15926,7 @@
         <v>6</v>
       </c>
       <c r="B1107" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1107">
         <v>172.15199999999999</v>
@@ -15933,7 +15940,7 @@
         <v>7</v>
       </c>
       <c r="B1108" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1108">
         <v>0</v>
@@ -15947,7 +15954,7 @@
         <v>8</v>
       </c>
       <c r="B1109" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1109">
         <v>11.577999999999999</v>
@@ -15961,7 +15968,7 @@
         <v>9</v>
       </c>
       <c r="B1110" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1110">
         <v>32.947499999999998</v>
@@ -15975,7 +15982,7 @@
         <v>10</v>
       </c>
       <c r="B1111" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1111">
         <v>12.516666666666669</v>
@@ -15989,7 +15996,7 @@
         <v>11</v>
       </c>
       <c r="B1112" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1112">
         <v>1.248</v>
@@ -16003,7 +16010,7 @@
         <v>12</v>
       </c>
       <c r="B1113" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1113">
         <v>244.38800000000001</v>
@@ -16017,7 +16024,7 @@
         <v>13</v>
       </c>
       <c r="B1114" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1114">
         <v>10.988</v>
@@ -16031,7 +16038,7 @@
         <v>14</v>
       </c>
       <c r="B1115" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1115">
         <v>57.81600000000001</v>
@@ -16045,7 +16052,7 @@
         <v>15</v>
       </c>
       <c r="B1116" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1116">
         <v>1329.95</v>
@@ -16059,7 +16066,7 @@
         <v>16</v>
       </c>
       <c r="B1117" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1117">
         <v>3.72</v>
@@ -16073,7 +16080,7 @@
         <v>4</v>
       </c>
       <c r="B1118" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1118">
         <v>0</v>
@@ -16087,7 +16094,7 @@
         <v>6</v>
       </c>
       <c r="B1119" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1119">
         <v>0</v>
@@ -16101,7 +16108,7 @@
         <v>7</v>
       </c>
       <c r="B1120" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1120">
         <v>0</v>
@@ -16115,7 +16122,7 @@
         <v>8</v>
       </c>
       <c r="B1121" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1121">
         <v>0</v>
@@ -16129,7 +16136,7 @@
         <v>9</v>
       </c>
       <c r="B1122" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1122">
         <v>0</v>
@@ -16143,7 +16150,7 @@
         <v>10</v>
       </c>
       <c r="B1123" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1123">
         <v>0</v>
@@ -16157,7 +16164,7 @@
         <v>11</v>
       </c>
       <c r="B1124" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1124">
         <v>0</v>
@@ -16171,7 +16178,7 @@
         <v>12</v>
       </c>
       <c r="B1125" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1125">
         <v>0</v>
@@ -16185,7 +16192,7 @@
         <v>13</v>
       </c>
       <c r="B1126" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1126">
         <v>0</v>
@@ -16199,7 +16206,7 @@
         <v>14</v>
       </c>
       <c r="B1127" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1127">
         <v>0</v>
@@ -16213,7 +16220,7 @@
         <v>15</v>
       </c>
       <c r="B1128" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1128">
         <v>0</v>
@@ -16227,7 +16234,7 @@
         <v>16</v>
       </c>
       <c r="B1129" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1129">
         <v>0</v>
@@ -16241,7 +16248,7 @@
         <v>4</v>
       </c>
       <c r="B1130" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1130">
         <v>28.565000000000001</v>
@@ -16255,7 +16262,7 @@
         <v>6</v>
       </c>
       <c r="B1131" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1131">
         <v>11.923999999999999</v>
@@ -16269,7 +16276,7 @@
         <v>7</v>
       </c>
       <c r="B1132" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1132">
         <v>32.954999999999998</v>
@@ -16283,7 +16290,7 @@
         <v>8</v>
       </c>
       <c r="B1133" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1133">
         <v>23.97</v>
@@ -16297,7 +16304,7 @@
         <v>9</v>
       </c>
       <c r="B1134" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1134">
         <v>39.237499999999997</v>
@@ -16311,7 +16318,7 @@
         <v>10</v>
       </c>
       <c r="B1135" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1135">
         <v>31.036666666666669</v>
@@ -16325,7 +16332,7 @@
         <v>11</v>
       </c>
       <c r="B1136" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1136">
         <v>19.245999999999999</v>
@@ -16339,7 +16346,7 @@
         <v>12</v>
       </c>
       <c r="B1137" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1137">
         <v>8.1479999999999997</v>
@@ -16353,7 +16360,7 @@
         <v>13</v>
       </c>
       <c r="B1138" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1138">
         <v>93.635999999999996</v>
@@ -16367,7 +16374,7 @@
         <v>14</v>
       </c>
       <c r="B1139" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1139">
         <v>108.67400000000001</v>
@@ -16381,7 +16388,7 @@
         <v>15</v>
       </c>
       <c r="B1140" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1140">
         <v>65.05</v>
@@ -16395,7 +16402,7 @@
         <v>16</v>
       </c>
       <c r="B1141" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1141">
         <v>2.54</v>
@@ -16409,7 +16416,7 @@
         <v>4</v>
       </c>
       <c r="B1142" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1142">
         <v>1.4475</v>
@@ -16423,7 +16430,7 @@
         <v>6</v>
       </c>
       <c r="B1143" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1143">
         <v>0</v>
@@ -16437,7 +16444,7 @@
         <v>7</v>
       </c>
       <c r="B1144" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1144">
         <v>2.7450000000000001</v>
@@ -16451,7 +16458,7 @@
         <v>8</v>
       </c>
       <c r="B1145" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1145">
         <v>1.07</v>
@@ -16465,7 +16472,7 @@
         <v>9</v>
       </c>
       <c r="B1146" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1146">
         <v>2.06</v>
@@ -16479,7 +16486,7 @@
         <v>10</v>
       </c>
       <c r="B1147" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1147">
         <v>6.623333333333334</v>
@@ -16493,7 +16500,7 @@
         <v>11</v>
       </c>
       <c r="B1148" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1148">
         <v>8.7919999999999998</v>
@@ -16507,7 +16514,7 @@
         <v>12</v>
       </c>
       <c r="B1149" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1149">
         <v>0</v>
@@ -16521,7 +16528,7 @@
         <v>13</v>
       </c>
       <c r="B1150" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1150">
         <v>29.18</v>
@@ -16535,7 +16542,7 @@
         <v>14</v>
       </c>
       <c r="B1151" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1151">
         <v>11.292</v>
@@ -16549,7 +16556,7 @@
         <v>15</v>
       </c>
       <c r="B1152" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1152">
         <v>78</v>
@@ -16563,7 +16570,7 @@
         <v>16</v>
       </c>
       <c r="B1153" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1153">
         <v>0</v>
@@ -16577,7 +16584,7 @@
         <v>4</v>
       </c>
       <c r="B1154" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1154">
         <v>1.155</v>
@@ -16591,7 +16598,7 @@
         <v>6</v>
       </c>
       <c r="B1155" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1155">
         <v>0</v>
@@ -16605,7 +16612,7 @@
         <v>7</v>
       </c>
       <c r="B1156" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1156">
         <v>0.75</v>
@@ -16619,7 +16626,7 @@
         <v>8</v>
       </c>
       <c r="B1157" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1157">
         <v>0.71199999999999997</v>
@@ -16633,7 +16640,7 @@
         <v>9</v>
       </c>
       <c r="B1158" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1158">
         <v>3.3</v>
@@ -16647,7 +16654,7 @@
         <v>10</v>
       </c>
       <c r="B1159" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1159">
         <v>2.68</v>
@@ -16661,7 +16668,7 @@
         <v>11</v>
       </c>
       <c r="B1160" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1160">
         <v>2.7040000000000002</v>
@@ -16675,7 +16682,7 @@
         <v>12</v>
       </c>
       <c r="B1161" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1161">
         <v>9.8780000000000001</v>
@@ -16689,7 +16696,7 @@
         <v>13</v>
       </c>
       <c r="B1162" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1162">
         <v>0</v>
@@ -16703,7 +16710,7 @@
         <v>14</v>
       </c>
       <c r="B1163" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1163">
         <v>11.456</v>
@@ -16717,7 +16724,7 @@
         <v>15</v>
       </c>
       <c r="B1164" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1164">
         <v>64.95</v>
@@ -16731,7 +16738,7 @@
         <v>16</v>
       </c>
       <c r="B1165" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1165">
         <v>2.99</v>
